--- a/PBZG Benotung-Vorlage - Musterklasse.xlsx
+++ b/PBZG Benotung-Vorlage - Musterklasse.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhVq3cenz4UlJXUuSGODfNVGc5wow=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjapGZ2WOINy4TrGBFnWUIg42g1Dg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>Klasse</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Geschlecht</t>
+  </si>
+  <si>
+    <t>e-Mail</t>
   </si>
   <si>
     <t>Wintersemester</t>
@@ -493,26 +496,26 @@
     <col customWidth="1" min="1" max="1" width="6.75"/>
     <col customWidth="1" min="2" max="2" width="11.5"/>
     <col customWidth="1" min="3" max="3" width="8.63"/>
-    <col customWidth="1" min="4" max="4" width="9.25"/>
-    <col customWidth="1" min="5" max="5" width="12.5"/>
-    <col customWidth="1" min="6" max="6" width="12.38"/>
-    <col customWidth="1" min="7" max="9" width="17.88"/>
-    <col customWidth="1" min="10" max="10" width="14.13"/>
-    <col customWidth="1" min="11" max="11" width="11.88"/>
-    <col customWidth="1" min="12" max="12" width="16.88"/>
-    <col customWidth="1" min="13" max="13" width="19.25"/>
-    <col customWidth="1" min="14" max="14" width="28.25"/>
-    <col customWidth="1" min="15" max="15" width="11.5"/>
-    <col customWidth="1" min="16" max="16" width="11.13"/>
-    <col customWidth="1" min="17" max="17" width="13.88"/>
-    <col customWidth="1" min="18" max="18" width="15.38"/>
-    <col customWidth="1" min="19" max="21" width="16.38"/>
-    <col customWidth="1" min="22" max="22" width="14.0"/>
-    <col customWidth="1" min="23" max="23" width="12.5"/>
-    <col customWidth="1" min="24" max="24" width="17.38"/>
-    <col customWidth="1" min="25" max="25" width="18.75"/>
-    <col customWidth="1" min="26" max="26" width="22.5"/>
-    <col customWidth="1" min="27" max="28" width="14.0"/>
+    <col customWidth="1" min="4" max="5" width="9.25"/>
+    <col customWidth="1" min="6" max="6" width="12.5"/>
+    <col customWidth="1" min="7" max="7" width="12.38"/>
+    <col customWidth="1" min="8" max="10" width="17.88"/>
+    <col customWidth="1" min="11" max="11" width="14.13"/>
+    <col customWidth="1" min="12" max="12" width="11.88"/>
+    <col customWidth="1" min="13" max="13" width="16.88"/>
+    <col customWidth="1" min="14" max="14" width="19.25"/>
+    <col customWidth="1" min="15" max="15" width="28.25"/>
+    <col customWidth="1" min="16" max="16" width="11.5"/>
+    <col customWidth="1" min="17" max="17" width="11.13"/>
+    <col customWidth="1" min="18" max="18" width="13.88"/>
+    <col customWidth="1" min="19" max="19" width="15.38"/>
+    <col customWidth="1" min="20" max="22" width="16.38"/>
+    <col customWidth="1" min="23" max="23" width="14.0"/>
+    <col customWidth="1" min="24" max="24" width="12.5"/>
+    <col customWidth="1" min="25" max="25" width="17.38"/>
+    <col customWidth="1" min="26" max="26" width="18.75"/>
+    <col customWidth="1" min="27" max="27" width="22.5"/>
+    <col customWidth="1" min="28" max="29" width="14.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -528,10 +531,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -543,16 +546,16 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -561,13 +564,13 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
@@ -579,16 +582,16 @@
       <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
@@ -600,23 +603,24 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
         <v>33</v>
       </c>
@@ -645,31 +649,31 @@
         <v>41</v>
       </c>
       <c r="O2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="4">
+        <v>2023.0</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>2023.0</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>35</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>44</v>
@@ -681,42 +685,43 @@
         <v>46</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>51</v>
@@ -731,34 +736,34 @@
         <v>54</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="4">
+        <v>55</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="4">
         <v>2023.0</v>
       </c>
-      <c r="R3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" s="4" t="s">
+      <c r="S3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="Y3" s="4" t="s">
         <v>57</v>
@@ -767,3002 +772,3005 @@
         <v>58</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
-      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
-      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
-      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
-      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
-      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
-      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
-      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
-      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
-      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
     </row>
     <row r="55" ht="12.75" customHeight="1">
-      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
     </row>
     <row r="56" ht="12.75" customHeight="1">
-      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
-      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
-      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
-      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
-      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
     </row>
     <row r="62" ht="12.75" customHeight="1">
-      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
-      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
-      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
-      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
     </row>
     <row r="66" ht="12.75" customHeight="1">
-      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
     </row>
     <row r="67" ht="12.75" customHeight="1">
-      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
-      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
-      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
-      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
-      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
-      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
-      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
-      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
-      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
-      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
-      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
-      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
-      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
-      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
     </row>
     <row r="82" ht="12.75" customHeight="1">
-      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
-      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
-      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
     </row>
     <row r="85" ht="12.75" customHeight="1">
-      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
     </row>
     <row r="86" ht="12.75" customHeight="1">
-      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
     </row>
     <row r="87" ht="12.75" customHeight="1">
-      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
     </row>
     <row r="88" ht="12.75" customHeight="1">
-      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
     </row>
     <row r="89" ht="12.75" customHeight="1">
-      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
     </row>
     <row r="90" ht="12.75" customHeight="1">
-      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
     </row>
     <row r="91" ht="12.75" customHeight="1">
-      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
     </row>
     <row r="92" ht="12.75" customHeight="1">
-      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
     </row>
     <row r="93" ht="12.75" customHeight="1">
-      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
     </row>
     <row r="94" ht="12.75" customHeight="1">
-      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
     </row>
     <row r="95" ht="12.75" customHeight="1">
-      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
-      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
     </row>
     <row r="97" ht="12.75" customHeight="1">
-      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
     </row>
     <row r="98" ht="12.75" customHeight="1">
-      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
     </row>
     <row r="99" ht="12.75" customHeight="1">
-      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
     </row>
     <row r="100" ht="12.75" customHeight="1">
-      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
     </row>
     <row r="101" ht="12.75" customHeight="1">
-      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
     </row>
     <row r="102" ht="12.75" customHeight="1">
-      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
     </row>
     <row r="103" ht="12.75" customHeight="1">
-      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
     </row>
     <row r="104" ht="12.75" customHeight="1">
-      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
     </row>
     <row r="105" ht="12.75" customHeight="1">
-      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
     </row>
     <row r="106" ht="12.75" customHeight="1">
-      <c r="P106" s="5"/>
+      <c r="Q106" s="5"/>
     </row>
     <row r="107" ht="12.75" customHeight="1">
-      <c r="P107" s="5"/>
+      <c r="Q107" s="5"/>
     </row>
     <row r="108" ht="12.75" customHeight="1">
-      <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
     </row>
     <row r="109" ht="12.75" customHeight="1">
-      <c r="P109" s="5"/>
+      <c r="Q109" s="5"/>
     </row>
     <row r="110" ht="12.75" customHeight="1">
-      <c r="P110" s="5"/>
+      <c r="Q110" s="5"/>
     </row>
     <row r="111" ht="12.75" customHeight="1">
-      <c r="P111" s="5"/>
+      <c r="Q111" s="5"/>
     </row>
     <row r="112" ht="12.75" customHeight="1">
-      <c r="P112" s="5"/>
+      <c r="Q112" s="5"/>
     </row>
     <row r="113" ht="12.75" customHeight="1">
-      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
     </row>
     <row r="114" ht="12.75" customHeight="1">
-      <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
     </row>
     <row r="115" ht="12.75" customHeight="1">
-      <c r="P115" s="5"/>
+      <c r="Q115" s="5"/>
     </row>
     <row r="116" ht="12.75" customHeight="1">
-      <c r="P116" s="5"/>
+      <c r="Q116" s="5"/>
     </row>
     <row r="117" ht="12.75" customHeight="1">
-      <c r="P117" s="5"/>
+      <c r="Q117" s="5"/>
     </row>
     <row r="118" ht="12.75" customHeight="1">
-      <c r="P118" s="5"/>
+      <c r="Q118" s="5"/>
     </row>
     <row r="119" ht="12.75" customHeight="1">
-      <c r="P119" s="5"/>
+      <c r="Q119" s="5"/>
     </row>
     <row r="120" ht="12.75" customHeight="1">
-      <c r="P120" s="5"/>
+      <c r="Q120" s="5"/>
     </row>
     <row r="121" ht="12.75" customHeight="1">
-      <c r="P121" s="5"/>
+      <c r="Q121" s="5"/>
     </row>
     <row r="122" ht="12.75" customHeight="1">
-      <c r="P122" s="5"/>
+      <c r="Q122" s="5"/>
     </row>
     <row r="123" ht="12.75" customHeight="1">
-      <c r="P123" s="5"/>
+      <c r="Q123" s="5"/>
     </row>
     <row r="124" ht="12.75" customHeight="1">
-      <c r="P124" s="5"/>
+      <c r="Q124" s="5"/>
     </row>
     <row r="125" ht="12.75" customHeight="1">
-      <c r="P125" s="5"/>
+      <c r="Q125" s="5"/>
     </row>
     <row r="126" ht="12.75" customHeight="1">
-      <c r="P126" s="5"/>
+      <c r="Q126" s="5"/>
     </row>
     <row r="127" ht="12.75" customHeight="1">
-      <c r="P127" s="5"/>
+      <c r="Q127" s="5"/>
     </row>
     <row r="128" ht="12.75" customHeight="1">
-      <c r="P128" s="5"/>
+      <c r="Q128" s="5"/>
     </row>
     <row r="129" ht="12.75" customHeight="1">
-      <c r="P129" s="5"/>
+      <c r="Q129" s="5"/>
     </row>
     <row r="130" ht="12.75" customHeight="1">
-      <c r="P130" s="5"/>
+      <c r="Q130" s="5"/>
     </row>
     <row r="131" ht="12.75" customHeight="1">
-      <c r="P131" s="5"/>
+      <c r="Q131" s="5"/>
     </row>
     <row r="132" ht="12.75" customHeight="1">
-      <c r="P132" s="5"/>
+      <c r="Q132" s="5"/>
     </row>
     <row r="133" ht="12.75" customHeight="1">
-      <c r="P133" s="5"/>
+      <c r="Q133" s="5"/>
     </row>
     <row r="134" ht="12.75" customHeight="1">
-      <c r="P134" s="5"/>
+      <c r="Q134" s="5"/>
     </row>
     <row r="135" ht="12.75" customHeight="1">
-      <c r="P135" s="5"/>
+      <c r="Q135" s="5"/>
     </row>
     <row r="136" ht="12.75" customHeight="1">
-      <c r="P136" s="5"/>
+      <c r="Q136" s="5"/>
     </row>
     <row r="137" ht="12.75" customHeight="1">
-      <c r="P137" s="5"/>
+      <c r="Q137" s="5"/>
     </row>
     <row r="138" ht="12.75" customHeight="1">
-      <c r="P138" s="5"/>
+      <c r="Q138" s="5"/>
     </row>
     <row r="139" ht="12.75" customHeight="1">
-      <c r="P139" s="5"/>
+      <c r="Q139" s="5"/>
     </row>
     <row r="140" ht="12.75" customHeight="1">
-      <c r="P140" s="5"/>
+      <c r="Q140" s="5"/>
     </row>
     <row r="141" ht="12.75" customHeight="1">
-      <c r="P141" s="5"/>
+      <c r="Q141" s="5"/>
     </row>
     <row r="142" ht="12.75" customHeight="1">
-      <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
     </row>
     <row r="143" ht="12.75" customHeight="1">
-      <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
     </row>
     <row r="144" ht="12.75" customHeight="1">
-      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
     </row>
     <row r="145" ht="12.75" customHeight="1">
-      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
     </row>
     <row r="146" ht="12.75" customHeight="1">
-      <c r="P146" s="5"/>
+      <c r="Q146" s="5"/>
     </row>
     <row r="147" ht="12.75" customHeight="1">
-      <c r="P147" s="5"/>
+      <c r="Q147" s="5"/>
     </row>
     <row r="148" ht="12.75" customHeight="1">
-      <c r="P148" s="5"/>
+      <c r="Q148" s="5"/>
     </row>
     <row r="149" ht="12.75" customHeight="1">
-      <c r="P149" s="5"/>
+      <c r="Q149" s="5"/>
     </row>
     <row r="150" ht="12.75" customHeight="1">
-      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
     </row>
     <row r="151" ht="12.75" customHeight="1">
-      <c r="P151" s="5"/>
+      <c r="Q151" s="5"/>
     </row>
     <row r="152" ht="12.75" customHeight="1">
-      <c r="P152" s="5"/>
+      <c r="Q152" s="5"/>
     </row>
     <row r="153" ht="12.75" customHeight="1">
-      <c r="P153" s="5"/>
+      <c r="Q153" s="5"/>
     </row>
     <row r="154" ht="12.75" customHeight="1">
-      <c r="P154" s="5"/>
+      <c r="Q154" s="5"/>
     </row>
     <row r="155" ht="12.75" customHeight="1">
-      <c r="P155" s="5"/>
+      <c r="Q155" s="5"/>
     </row>
     <row r="156" ht="12.75" customHeight="1">
-      <c r="P156" s="5"/>
+      <c r="Q156" s="5"/>
     </row>
     <row r="157" ht="12.75" customHeight="1">
-      <c r="P157" s="5"/>
+      <c r="Q157" s="5"/>
     </row>
     <row r="158" ht="12.75" customHeight="1">
-      <c r="P158" s="5"/>
+      <c r="Q158" s="5"/>
     </row>
     <row r="159" ht="12.75" customHeight="1">
-      <c r="P159" s="5"/>
+      <c r="Q159" s="5"/>
     </row>
     <row r="160" ht="12.75" customHeight="1">
-      <c r="P160" s="5"/>
+      <c r="Q160" s="5"/>
     </row>
     <row r="161" ht="12.75" customHeight="1">
-      <c r="P161" s="5"/>
+      <c r="Q161" s="5"/>
     </row>
     <row r="162" ht="12.75" customHeight="1">
-      <c r="P162" s="5"/>
+      <c r="Q162" s="5"/>
     </row>
     <row r="163" ht="12.75" customHeight="1">
-      <c r="P163" s="5"/>
+      <c r="Q163" s="5"/>
     </row>
     <row r="164" ht="12.75" customHeight="1">
-      <c r="P164" s="5"/>
+      <c r="Q164" s="5"/>
     </row>
     <row r="165" ht="12.75" customHeight="1">
-      <c r="P165" s="5"/>
+      <c r="Q165" s="5"/>
     </row>
     <row r="166" ht="12.75" customHeight="1">
-      <c r="P166" s="5"/>
+      <c r="Q166" s="5"/>
     </row>
     <row r="167" ht="12.75" customHeight="1">
-      <c r="P167" s="5"/>
+      <c r="Q167" s="5"/>
     </row>
     <row r="168" ht="12.75" customHeight="1">
-      <c r="P168" s="5"/>
+      <c r="Q168" s="5"/>
     </row>
     <row r="169" ht="12.75" customHeight="1">
-      <c r="P169" s="5"/>
+      <c r="Q169" s="5"/>
     </row>
     <row r="170" ht="12.75" customHeight="1">
-      <c r="P170" s="5"/>
+      <c r="Q170" s="5"/>
     </row>
     <row r="171" ht="12.75" customHeight="1">
-      <c r="P171" s="5"/>
+      <c r="Q171" s="5"/>
     </row>
     <row r="172" ht="12.75" customHeight="1">
-      <c r="P172" s="5"/>
+      <c r="Q172" s="5"/>
     </row>
     <row r="173" ht="12.75" customHeight="1">
-      <c r="P173" s="5"/>
+      <c r="Q173" s="5"/>
     </row>
     <row r="174" ht="12.75" customHeight="1">
-      <c r="P174" s="5"/>
+      <c r="Q174" s="5"/>
     </row>
     <row r="175" ht="12.75" customHeight="1">
-      <c r="P175" s="5"/>
+      <c r="Q175" s="5"/>
     </row>
     <row r="176" ht="12.75" customHeight="1">
-      <c r="P176" s="5"/>
+      <c r="Q176" s="5"/>
     </row>
     <row r="177" ht="12.75" customHeight="1">
-      <c r="P177" s="5"/>
+      <c r="Q177" s="5"/>
     </row>
     <row r="178" ht="12.75" customHeight="1">
-      <c r="P178" s="5"/>
+      <c r="Q178" s="5"/>
     </row>
     <row r="179" ht="12.75" customHeight="1">
-      <c r="P179" s="5"/>
+      <c r="Q179" s="5"/>
     </row>
     <row r="180" ht="12.75" customHeight="1">
-      <c r="P180" s="5"/>
+      <c r="Q180" s="5"/>
     </row>
     <row r="181" ht="12.75" customHeight="1">
-      <c r="P181" s="5"/>
+      <c r="Q181" s="5"/>
     </row>
     <row r="182" ht="12.75" customHeight="1">
-      <c r="P182" s="5"/>
+      <c r="Q182" s="5"/>
     </row>
     <row r="183" ht="12.75" customHeight="1">
-      <c r="P183" s="5"/>
+      <c r="Q183" s="5"/>
     </row>
     <row r="184" ht="12.75" customHeight="1">
-      <c r="P184" s="5"/>
+      <c r="Q184" s="5"/>
     </row>
     <row r="185" ht="12.75" customHeight="1">
-      <c r="P185" s="5"/>
+      <c r="Q185" s="5"/>
     </row>
     <row r="186" ht="12.75" customHeight="1">
-      <c r="P186" s="5"/>
+      <c r="Q186" s="5"/>
     </row>
     <row r="187" ht="12.75" customHeight="1">
-      <c r="P187" s="5"/>
+      <c r="Q187" s="5"/>
     </row>
     <row r="188" ht="12.75" customHeight="1">
-      <c r="P188" s="5"/>
+      <c r="Q188" s="5"/>
     </row>
     <row r="189" ht="12.75" customHeight="1">
-      <c r="P189" s="5"/>
+      <c r="Q189" s="5"/>
     </row>
     <row r="190" ht="12.75" customHeight="1">
-      <c r="P190" s="5"/>
+      <c r="Q190" s="5"/>
     </row>
     <row r="191" ht="12.75" customHeight="1">
-      <c r="P191" s="5"/>
+      <c r="Q191" s="5"/>
     </row>
     <row r="192" ht="12.75" customHeight="1">
-      <c r="P192" s="5"/>
+      <c r="Q192" s="5"/>
     </row>
     <row r="193" ht="12.75" customHeight="1">
-      <c r="P193" s="5"/>
+      <c r="Q193" s="5"/>
     </row>
     <row r="194" ht="12.75" customHeight="1">
-      <c r="P194" s="5"/>
+      <c r="Q194" s="5"/>
     </row>
     <row r="195" ht="12.75" customHeight="1">
-      <c r="P195" s="5"/>
+      <c r="Q195" s="5"/>
     </row>
     <row r="196" ht="12.75" customHeight="1">
-      <c r="P196" s="5"/>
+      <c r="Q196" s="5"/>
     </row>
     <row r="197" ht="12.75" customHeight="1">
-      <c r="P197" s="5"/>
+      <c r="Q197" s="5"/>
     </row>
     <row r="198" ht="12.75" customHeight="1">
-      <c r="P198" s="5"/>
+      <c r="Q198" s="5"/>
     </row>
     <row r="199" ht="12.75" customHeight="1">
-      <c r="P199" s="5"/>
+      <c r="Q199" s="5"/>
     </row>
     <row r="200" ht="12.75" customHeight="1">
-      <c r="P200" s="5"/>
+      <c r="Q200" s="5"/>
     </row>
     <row r="201" ht="12.75" customHeight="1">
-      <c r="P201" s="5"/>
+      <c r="Q201" s="5"/>
     </row>
     <row r="202" ht="12.75" customHeight="1">
-      <c r="P202" s="5"/>
+      <c r="Q202" s="5"/>
     </row>
     <row r="203" ht="12.75" customHeight="1">
-      <c r="P203" s="5"/>
+      <c r="Q203" s="5"/>
     </row>
     <row r="204" ht="12.75" customHeight="1">
-      <c r="P204" s="5"/>
+      <c r="Q204" s="5"/>
     </row>
     <row r="205" ht="12.75" customHeight="1">
-      <c r="P205" s="5"/>
+      <c r="Q205" s="5"/>
     </row>
     <row r="206" ht="12.75" customHeight="1">
-      <c r="P206" s="5"/>
+      <c r="Q206" s="5"/>
     </row>
     <row r="207" ht="12.75" customHeight="1">
-      <c r="P207" s="5"/>
+      <c r="Q207" s="5"/>
     </row>
     <row r="208" ht="12.75" customHeight="1">
-      <c r="P208" s="5"/>
+      <c r="Q208" s="5"/>
     </row>
     <row r="209" ht="12.75" customHeight="1">
-      <c r="P209" s="5"/>
+      <c r="Q209" s="5"/>
     </row>
     <row r="210" ht="12.75" customHeight="1">
-      <c r="P210" s="5"/>
+      <c r="Q210" s="5"/>
     </row>
     <row r="211" ht="12.75" customHeight="1">
-      <c r="P211" s="5"/>
+      <c r="Q211" s="5"/>
     </row>
     <row r="212" ht="12.75" customHeight="1">
-      <c r="P212" s="5"/>
+      <c r="Q212" s="5"/>
     </row>
     <row r="213" ht="12.75" customHeight="1">
-      <c r="P213" s="5"/>
+      <c r="Q213" s="5"/>
     </row>
     <row r="214" ht="12.75" customHeight="1">
-      <c r="P214" s="5"/>
+      <c r="Q214" s="5"/>
     </row>
     <row r="215" ht="12.75" customHeight="1">
-      <c r="P215" s="5"/>
+      <c r="Q215" s="5"/>
     </row>
     <row r="216" ht="12.75" customHeight="1">
-      <c r="P216" s="5"/>
+      <c r="Q216" s="5"/>
     </row>
     <row r="217" ht="12.75" customHeight="1">
-      <c r="P217" s="5"/>
+      <c r="Q217" s="5"/>
     </row>
     <row r="218" ht="12.75" customHeight="1">
-      <c r="P218" s="5"/>
+      <c r="Q218" s="5"/>
     </row>
     <row r="219" ht="12.75" customHeight="1">
-      <c r="P219" s="5"/>
+      <c r="Q219" s="5"/>
     </row>
     <row r="220" ht="12.75" customHeight="1">
-      <c r="P220" s="5"/>
+      <c r="Q220" s="5"/>
     </row>
     <row r="221" ht="12.75" customHeight="1">
-      <c r="P221" s="5"/>
+      <c r="Q221" s="5"/>
     </row>
     <row r="222" ht="12.75" customHeight="1">
-      <c r="P222" s="5"/>
+      <c r="Q222" s="5"/>
     </row>
     <row r="223" ht="12.75" customHeight="1">
-      <c r="P223" s="5"/>
+      <c r="Q223" s="5"/>
     </row>
     <row r="224" ht="12.75" customHeight="1">
-      <c r="P224" s="5"/>
+      <c r="Q224" s="5"/>
     </row>
     <row r="225" ht="12.75" customHeight="1">
-      <c r="P225" s="5"/>
+      <c r="Q225" s="5"/>
     </row>
     <row r="226" ht="12.75" customHeight="1">
-      <c r="P226" s="5"/>
+      <c r="Q226" s="5"/>
     </row>
     <row r="227" ht="12.75" customHeight="1">
-      <c r="P227" s="5"/>
+      <c r="Q227" s="5"/>
     </row>
     <row r="228" ht="12.75" customHeight="1">
-      <c r="P228" s="5"/>
+      <c r="Q228" s="5"/>
     </row>
     <row r="229" ht="12.75" customHeight="1">
-      <c r="P229" s="5"/>
+      <c r="Q229" s="5"/>
     </row>
     <row r="230" ht="12.75" customHeight="1">
-      <c r="P230" s="5"/>
+      <c r="Q230" s="5"/>
     </row>
     <row r="231" ht="12.75" customHeight="1">
-      <c r="P231" s="5"/>
+      <c r="Q231" s="5"/>
     </row>
     <row r="232" ht="12.75" customHeight="1">
-      <c r="P232" s="5"/>
+      <c r="Q232" s="5"/>
     </row>
     <row r="233" ht="12.75" customHeight="1">
-      <c r="P233" s="5"/>
+      <c r="Q233" s="5"/>
     </row>
     <row r="234" ht="12.75" customHeight="1">
-      <c r="P234" s="5"/>
+      <c r="Q234" s="5"/>
     </row>
     <row r="235" ht="12.75" customHeight="1">
-      <c r="P235" s="5"/>
+      <c r="Q235" s="5"/>
     </row>
     <row r="236" ht="12.75" customHeight="1">
-      <c r="P236" s="5"/>
+      <c r="Q236" s="5"/>
     </row>
     <row r="237" ht="12.75" customHeight="1">
-      <c r="P237" s="5"/>
+      <c r="Q237" s="5"/>
     </row>
     <row r="238" ht="12.75" customHeight="1">
-      <c r="P238" s="5"/>
+      <c r="Q238" s="5"/>
     </row>
     <row r="239" ht="12.75" customHeight="1">
-      <c r="P239" s="5"/>
+      <c r="Q239" s="5"/>
     </row>
     <row r="240" ht="12.75" customHeight="1">
-      <c r="P240" s="5"/>
+      <c r="Q240" s="5"/>
     </row>
     <row r="241" ht="12.75" customHeight="1">
-      <c r="P241" s="5"/>
+      <c r="Q241" s="5"/>
     </row>
     <row r="242" ht="12.75" customHeight="1">
-      <c r="P242" s="5"/>
+      <c r="Q242" s="5"/>
     </row>
     <row r="243" ht="12.75" customHeight="1">
-      <c r="P243" s="5"/>
+      <c r="Q243" s="5"/>
     </row>
     <row r="244" ht="12.75" customHeight="1">
-      <c r="P244" s="5"/>
+      <c r="Q244" s="5"/>
     </row>
     <row r="245" ht="12.75" customHeight="1">
-      <c r="P245" s="5"/>
+      <c r="Q245" s="5"/>
     </row>
     <row r="246" ht="12.75" customHeight="1">
-      <c r="P246" s="5"/>
+      <c r="Q246" s="5"/>
     </row>
     <row r="247" ht="12.75" customHeight="1">
-      <c r="P247" s="5"/>
+      <c r="Q247" s="5"/>
     </row>
     <row r="248" ht="12.75" customHeight="1">
-      <c r="P248" s="5"/>
+      <c r="Q248" s="5"/>
     </row>
     <row r="249" ht="12.75" customHeight="1">
-      <c r="P249" s="5"/>
+      <c r="Q249" s="5"/>
     </row>
     <row r="250" ht="12.75" customHeight="1">
-      <c r="P250" s="5"/>
+      <c r="Q250" s="5"/>
     </row>
     <row r="251" ht="12.75" customHeight="1">
-      <c r="P251" s="5"/>
+      <c r="Q251" s="5"/>
     </row>
     <row r="252" ht="12.75" customHeight="1">
-      <c r="P252" s="5"/>
+      <c r="Q252" s="5"/>
     </row>
     <row r="253" ht="12.75" customHeight="1">
-      <c r="P253" s="5"/>
+      <c r="Q253" s="5"/>
     </row>
     <row r="254" ht="12.75" customHeight="1">
-      <c r="P254" s="5"/>
+      <c r="Q254" s="5"/>
     </row>
     <row r="255" ht="12.75" customHeight="1">
-      <c r="P255" s="5"/>
+      <c r="Q255" s="5"/>
     </row>
     <row r="256" ht="12.75" customHeight="1">
-      <c r="P256" s="5"/>
+      <c r="Q256" s="5"/>
     </row>
     <row r="257" ht="12.75" customHeight="1">
-      <c r="P257" s="5"/>
+      <c r="Q257" s="5"/>
     </row>
     <row r="258" ht="12.75" customHeight="1">
-      <c r="P258" s="5"/>
+      <c r="Q258" s="5"/>
     </row>
     <row r="259" ht="12.75" customHeight="1">
-      <c r="P259" s="5"/>
+      <c r="Q259" s="5"/>
     </row>
     <row r="260" ht="12.75" customHeight="1">
-      <c r="P260" s="5"/>
+      <c r="Q260" s="5"/>
     </row>
     <row r="261" ht="12.75" customHeight="1">
-      <c r="P261" s="5"/>
+      <c r="Q261" s="5"/>
     </row>
     <row r="262" ht="12.75" customHeight="1">
-      <c r="P262" s="5"/>
+      <c r="Q262" s="5"/>
     </row>
     <row r="263" ht="12.75" customHeight="1">
-      <c r="P263" s="5"/>
+      <c r="Q263" s="5"/>
     </row>
     <row r="264" ht="12.75" customHeight="1">
-      <c r="P264" s="5"/>
+      <c r="Q264" s="5"/>
     </row>
     <row r="265" ht="12.75" customHeight="1">
-      <c r="P265" s="5"/>
+      <c r="Q265" s="5"/>
     </row>
     <row r="266" ht="12.75" customHeight="1">
-      <c r="P266" s="5"/>
+      <c r="Q266" s="5"/>
     </row>
     <row r="267" ht="12.75" customHeight="1">
-      <c r="P267" s="5"/>
+      <c r="Q267" s="5"/>
     </row>
     <row r="268" ht="12.75" customHeight="1">
-      <c r="P268" s="5"/>
+      <c r="Q268" s="5"/>
     </row>
     <row r="269" ht="12.75" customHeight="1">
-      <c r="P269" s="5"/>
+      <c r="Q269" s="5"/>
     </row>
     <row r="270" ht="12.75" customHeight="1">
-      <c r="P270" s="5"/>
+      <c r="Q270" s="5"/>
     </row>
     <row r="271" ht="12.75" customHeight="1">
-      <c r="P271" s="5"/>
+      <c r="Q271" s="5"/>
     </row>
     <row r="272" ht="12.75" customHeight="1">
-      <c r="P272" s="5"/>
+      <c r="Q272" s="5"/>
     </row>
     <row r="273" ht="12.75" customHeight="1">
-      <c r="P273" s="5"/>
+      <c r="Q273" s="5"/>
     </row>
     <row r="274" ht="12.75" customHeight="1">
-      <c r="P274" s="5"/>
+      <c r="Q274" s="5"/>
     </row>
     <row r="275" ht="12.75" customHeight="1">
-      <c r="P275" s="5"/>
+      <c r="Q275" s="5"/>
     </row>
     <row r="276" ht="12.75" customHeight="1">
-      <c r="P276" s="5"/>
+      <c r="Q276" s="5"/>
     </row>
     <row r="277" ht="12.75" customHeight="1">
-      <c r="P277" s="5"/>
+      <c r="Q277" s="5"/>
     </row>
     <row r="278" ht="12.75" customHeight="1">
-      <c r="P278" s="5"/>
+      <c r="Q278" s="5"/>
     </row>
     <row r="279" ht="12.75" customHeight="1">
-      <c r="P279" s="5"/>
+      <c r="Q279" s="5"/>
     </row>
     <row r="280" ht="12.75" customHeight="1">
-      <c r="P280" s="5"/>
+      <c r="Q280" s="5"/>
     </row>
     <row r="281" ht="12.75" customHeight="1">
-      <c r="P281" s="5"/>
+      <c r="Q281" s="5"/>
     </row>
     <row r="282" ht="12.75" customHeight="1">
-      <c r="P282" s="5"/>
+      <c r="Q282" s="5"/>
     </row>
     <row r="283" ht="12.75" customHeight="1">
-      <c r="P283" s="5"/>
+      <c r="Q283" s="5"/>
     </row>
     <row r="284" ht="12.75" customHeight="1">
-      <c r="P284" s="5"/>
+      <c r="Q284" s="5"/>
     </row>
     <row r="285" ht="12.75" customHeight="1">
-      <c r="P285" s="5"/>
+      <c r="Q285" s="5"/>
     </row>
     <row r="286" ht="12.75" customHeight="1">
-      <c r="P286" s="5"/>
+      <c r="Q286" s="5"/>
     </row>
     <row r="287" ht="12.75" customHeight="1">
-      <c r="P287" s="5"/>
+      <c r="Q287" s="5"/>
     </row>
     <row r="288" ht="12.75" customHeight="1">
-      <c r="P288" s="5"/>
+      <c r="Q288" s="5"/>
     </row>
     <row r="289" ht="12.75" customHeight="1">
-      <c r="P289" s="5"/>
+      <c r="Q289" s="5"/>
     </row>
     <row r="290" ht="12.75" customHeight="1">
-      <c r="P290" s="5"/>
+      <c r="Q290" s="5"/>
     </row>
     <row r="291" ht="12.75" customHeight="1">
-      <c r="P291" s="5"/>
+      <c r="Q291" s="5"/>
     </row>
     <row r="292" ht="12.75" customHeight="1">
-      <c r="P292" s="5"/>
+      <c r="Q292" s="5"/>
     </row>
     <row r="293" ht="12.75" customHeight="1">
-      <c r="P293" s="5"/>
+      <c r="Q293" s="5"/>
     </row>
     <row r="294" ht="12.75" customHeight="1">
-      <c r="P294" s="5"/>
+      <c r="Q294" s="5"/>
     </row>
     <row r="295" ht="12.75" customHeight="1">
-      <c r="P295" s="5"/>
+      <c r="Q295" s="5"/>
     </row>
     <row r="296" ht="12.75" customHeight="1">
-      <c r="P296" s="5"/>
+      <c r="Q296" s="5"/>
     </row>
     <row r="297" ht="12.75" customHeight="1">
-      <c r="P297" s="5"/>
+      <c r="Q297" s="5"/>
     </row>
     <row r="298" ht="12.75" customHeight="1">
-      <c r="P298" s="5"/>
+      <c r="Q298" s="5"/>
     </row>
     <row r="299" ht="12.75" customHeight="1">
-      <c r="P299" s="5"/>
+      <c r="Q299" s="5"/>
     </row>
     <row r="300" ht="12.75" customHeight="1">
-      <c r="P300" s="5"/>
+      <c r="Q300" s="5"/>
     </row>
     <row r="301" ht="12.75" customHeight="1">
-      <c r="P301" s="5"/>
+      <c r="Q301" s="5"/>
     </row>
     <row r="302" ht="12.75" customHeight="1">
-      <c r="P302" s="5"/>
+      <c r="Q302" s="5"/>
     </row>
     <row r="303" ht="12.75" customHeight="1">
-      <c r="P303" s="5"/>
+      <c r="Q303" s="5"/>
     </row>
     <row r="304" ht="12.75" customHeight="1">
-      <c r="P304" s="5"/>
+      <c r="Q304" s="5"/>
     </row>
     <row r="305" ht="12.75" customHeight="1">
-      <c r="P305" s="5"/>
+      <c r="Q305" s="5"/>
     </row>
     <row r="306" ht="12.75" customHeight="1">
-      <c r="P306" s="5"/>
+      <c r="Q306" s="5"/>
     </row>
     <row r="307" ht="12.75" customHeight="1">
-      <c r="P307" s="5"/>
+      <c r="Q307" s="5"/>
     </row>
     <row r="308" ht="12.75" customHeight="1">
-      <c r="P308" s="5"/>
+      <c r="Q308" s="5"/>
     </row>
     <row r="309" ht="12.75" customHeight="1">
-      <c r="P309" s="5"/>
+      <c r="Q309" s="5"/>
     </row>
     <row r="310" ht="12.75" customHeight="1">
-      <c r="P310" s="5"/>
+      <c r="Q310" s="5"/>
     </row>
     <row r="311" ht="12.75" customHeight="1">
-      <c r="P311" s="5"/>
+      <c r="Q311" s="5"/>
     </row>
     <row r="312" ht="12.75" customHeight="1">
-      <c r="P312" s="5"/>
+      <c r="Q312" s="5"/>
     </row>
     <row r="313" ht="12.75" customHeight="1">
-      <c r="P313" s="5"/>
+      <c r="Q313" s="5"/>
     </row>
     <row r="314" ht="12.75" customHeight="1">
-      <c r="P314" s="5"/>
+      <c r="Q314" s="5"/>
     </row>
     <row r="315" ht="12.75" customHeight="1">
-      <c r="P315" s="5"/>
+      <c r="Q315" s="5"/>
     </row>
     <row r="316" ht="12.75" customHeight="1">
-      <c r="P316" s="5"/>
+      <c r="Q316" s="5"/>
     </row>
     <row r="317" ht="12.75" customHeight="1">
-      <c r="P317" s="5"/>
+      <c r="Q317" s="5"/>
     </row>
     <row r="318" ht="12.75" customHeight="1">
-      <c r="P318" s="5"/>
+      <c r="Q318" s="5"/>
     </row>
     <row r="319" ht="12.75" customHeight="1">
-      <c r="P319" s="5"/>
+      <c r="Q319" s="5"/>
     </row>
     <row r="320" ht="12.75" customHeight="1">
-      <c r="P320" s="5"/>
+      <c r="Q320" s="5"/>
     </row>
     <row r="321" ht="12.75" customHeight="1">
-      <c r="P321" s="5"/>
+      <c r="Q321" s="5"/>
     </row>
     <row r="322" ht="12.75" customHeight="1">
-      <c r="P322" s="5"/>
+      <c r="Q322" s="5"/>
     </row>
     <row r="323" ht="12.75" customHeight="1">
-      <c r="P323" s="5"/>
+      <c r="Q323" s="5"/>
     </row>
     <row r="324" ht="12.75" customHeight="1">
-      <c r="P324" s="5"/>
+      <c r="Q324" s="5"/>
     </row>
     <row r="325" ht="12.75" customHeight="1">
-      <c r="P325" s="5"/>
+      <c r="Q325" s="5"/>
     </row>
     <row r="326" ht="12.75" customHeight="1">
-      <c r="P326" s="5"/>
+      <c r="Q326" s="5"/>
     </row>
     <row r="327" ht="12.75" customHeight="1">
-      <c r="P327" s="5"/>
+      <c r="Q327" s="5"/>
     </row>
     <row r="328" ht="12.75" customHeight="1">
-      <c r="P328" s="5"/>
+      <c r="Q328" s="5"/>
     </row>
     <row r="329" ht="12.75" customHeight="1">
-      <c r="P329" s="5"/>
+      <c r="Q329" s="5"/>
     </row>
     <row r="330" ht="12.75" customHeight="1">
-      <c r="P330" s="5"/>
+      <c r="Q330" s="5"/>
     </row>
     <row r="331" ht="12.75" customHeight="1">
-      <c r="P331" s="5"/>
+      <c r="Q331" s="5"/>
     </row>
     <row r="332" ht="12.75" customHeight="1">
-      <c r="P332" s="5"/>
+      <c r="Q332" s="5"/>
     </row>
     <row r="333" ht="12.75" customHeight="1">
-      <c r="P333" s="5"/>
+      <c r="Q333" s="5"/>
     </row>
     <row r="334" ht="12.75" customHeight="1">
-      <c r="P334" s="5"/>
+      <c r="Q334" s="5"/>
     </row>
     <row r="335" ht="12.75" customHeight="1">
-      <c r="P335" s="5"/>
+      <c r="Q335" s="5"/>
     </row>
     <row r="336" ht="12.75" customHeight="1">
-      <c r="P336" s="5"/>
+      <c r="Q336" s="5"/>
     </row>
     <row r="337" ht="12.75" customHeight="1">
-      <c r="P337" s="5"/>
+      <c r="Q337" s="5"/>
     </row>
     <row r="338" ht="12.75" customHeight="1">
-      <c r="P338" s="5"/>
+      <c r="Q338" s="5"/>
     </row>
     <row r="339" ht="12.75" customHeight="1">
-      <c r="P339" s="5"/>
+      <c r="Q339" s="5"/>
     </row>
     <row r="340" ht="12.75" customHeight="1">
-      <c r="P340" s="5"/>
+      <c r="Q340" s="5"/>
     </row>
     <row r="341" ht="12.75" customHeight="1">
-      <c r="P341" s="5"/>
+      <c r="Q341" s="5"/>
     </row>
     <row r="342" ht="12.75" customHeight="1">
-      <c r="P342" s="5"/>
+      <c r="Q342" s="5"/>
     </row>
     <row r="343" ht="12.75" customHeight="1">
-      <c r="P343" s="5"/>
+      <c r="Q343" s="5"/>
     </row>
     <row r="344" ht="12.75" customHeight="1">
-      <c r="P344" s="5"/>
+      <c r="Q344" s="5"/>
     </row>
     <row r="345" ht="12.75" customHeight="1">
-      <c r="P345" s="5"/>
+      <c r="Q345" s="5"/>
     </row>
     <row r="346" ht="12.75" customHeight="1">
-      <c r="P346" s="5"/>
+      <c r="Q346" s="5"/>
     </row>
     <row r="347" ht="12.75" customHeight="1">
-      <c r="P347" s="5"/>
+      <c r="Q347" s="5"/>
     </row>
     <row r="348" ht="12.75" customHeight="1">
-      <c r="P348" s="5"/>
+      <c r="Q348" s="5"/>
     </row>
     <row r="349" ht="12.75" customHeight="1">
-      <c r="P349" s="5"/>
+      <c r="Q349" s="5"/>
     </row>
     <row r="350" ht="12.75" customHeight="1">
-      <c r="P350" s="5"/>
+      <c r="Q350" s="5"/>
     </row>
     <row r="351" ht="12.75" customHeight="1">
-      <c r="P351" s="5"/>
+      <c r="Q351" s="5"/>
     </row>
     <row r="352" ht="12.75" customHeight="1">
-      <c r="P352" s="5"/>
+      <c r="Q352" s="5"/>
     </row>
     <row r="353" ht="12.75" customHeight="1">
-      <c r="P353" s="5"/>
+      <c r="Q353" s="5"/>
     </row>
     <row r="354" ht="12.75" customHeight="1">
-      <c r="P354" s="5"/>
+      <c r="Q354" s="5"/>
     </row>
     <row r="355" ht="12.75" customHeight="1">
-      <c r="P355" s="5"/>
+      <c r="Q355" s="5"/>
     </row>
     <row r="356" ht="12.75" customHeight="1">
-      <c r="P356" s="5"/>
+      <c r="Q356" s="5"/>
     </row>
     <row r="357" ht="12.75" customHeight="1">
-      <c r="P357" s="5"/>
+      <c r="Q357" s="5"/>
     </row>
     <row r="358" ht="12.75" customHeight="1">
-      <c r="P358" s="5"/>
+      <c r="Q358" s="5"/>
     </row>
     <row r="359" ht="12.75" customHeight="1">
-      <c r="P359" s="5"/>
+      <c r="Q359" s="5"/>
     </row>
     <row r="360" ht="12.75" customHeight="1">
-      <c r="P360" s="5"/>
+      <c r="Q360" s="5"/>
     </row>
     <row r="361" ht="12.75" customHeight="1">
-      <c r="P361" s="5"/>
+      <c r="Q361" s="5"/>
     </row>
     <row r="362" ht="12.75" customHeight="1">
-      <c r="P362" s="5"/>
+      <c r="Q362" s="5"/>
     </row>
     <row r="363" ht="12.75" customHeight="1">
-      <c r="P363" s="5"/>
+      <c r="Q363" s="5"/>
     </row>
     <row r="364" ht="12.75" customHeight="1">
-      <c r="P364" s="5"/>
+      <c r="Q364" s="5"/>
     </row>
     <row r="365" ht="12.75" customHeight="1">
-      <c r="P365" s="5"/>
+      <c r="Q365" s="5"/>
     </row>
     <row r="366" ht="12.75" customHeight="1">
-      <c r="P366" s="5"/>
+      <c r="Q366" s="5"/>
     </row>
     <row r="367" ht="12.75" customHeight="1">
-      <c r="P367" s="5"/>
+      <c r="Q367" s="5"/>
     </row>
     <row r="368" ht="12.75" customHeight="1">
-      <c r="P368" s="5"/>
+      <c r="Q368" s="5"/>
     </row>
     <row r="369" ht="12.75" customHeight="1">
-      <c r="P369" s="5"/>
+      <c r="Q369" s="5"/>
     </row>
     <row r="370" ht="12.75" customHeight="1">
-      <c r="P370" s="5"/>
+      <c r="Q370" s="5"/>
     </row>
     <row r="371" ht="12.75" customHeight="1">
-      <c r="P371" s="5"/>
+      <c r="Q371" s="5"/>
     </row>
     <row r="372" ht="12.75" customHeight="1">
-      <c r="P372" s="5"/>
+      <c r="Q372" s="5"/>
     </row>
     <row r="373" ht="12.75" customHeight="1">
-      <c r="P373" s="5"/>
+      <c r="Q373" s="5"/>
     </row>
     <row r="374" ht="12.75" customHeight="1">
-      <c r="P374" s="5"/>
+      <c r="Q374" s="5"/>
     </row>
     <row r="375" ht="12.75" customHeight="1">
-      <c r="P375" s="5"/>
+      <c r="Q375" s="5"/>
     </row>
     <row r="376" ht="12.75" customHeight="1">
-      <c r="P376" s="5"/>
+      <c r="Q376" s="5"/>
     </row>
     <row r="377" ht="12.75" customHeight="1">
-      <c r="P377" s="5"/>
+      <c r="Q377" s="5"/>
     </row>
     <row r="378" ht="12.75" customHeight="1">
-      <c r="P378" s="5"/>
+      <c r="Q378" s="5"/>
     </row>
     <row r="379" ht="12.75" customHeight="1">
-      <c r="P379" s="5"/>
+      <c r="Q379" s="5"/>
     </row>
     <row r="380" ht="12.75" customHeight="1">
-      <c r="P380" s="5"/>
+      <c r="Q380" s="5"/>
     </row>
     <row r="381" ht="12.75" customHeight="1">
-      <c r="P381" s="5"/>
+      <c r="Q381" s="5"/>
     </row>
     <row r="382" ht="12.75" customHeight="1">
-      <c r="P382" s="5"/>
+      <c r="Q382" s="5"/>
     </row>
     <row r="383" ht="12.75" customHeight="1">
-      <c r="P383" s="5"/>
+      <c r="Q383" s="5"/>
     </row>
     <row r="384" ht="12.75" customHeight="1">
-      <c r="P384" s="5"/>
+      <c r="Q384" s="5"/>
     </row>
     <row r="385" ht="12.75" customHeight="1">
-      <c r="P385" s="5"/>
+      <c r="Q385" s="5"/>
     </row>
     <row r="386" ht="12.75" customHeight="1">
-      <c r="P386" s="5"/>
+      <c r="Q386" s="5"/>
     </row>
     <row r="387" ht="12.75" customHeight="1">
-      <c r="P387" s="5"/>
+      <c r="Q387" s="5"/>
     </row>
     <row r="388" ht="12.75" customHeight="1">
-      <c r="P388" s="5"/>
+      <c r="Q388" s="5"/>
     </row>
     <row r="389" ht="12.75" customHeight="1">
-      <c r="P389" s="5"/>
+      <c r="Q389" s="5"/>
     </row>
     <row r="390" ht="12.75" customHeight="1">
-      <c r="P390" s="5"/>
+      <c r="Q390" s="5"/>
     </row>
     <row r="391" ht="12.75" customHeight="1">
-      <c r="P391" s="5"/>
+      <c r="Q391" s="5"/>
     </row>
     <row r="392" ht="12.75" customHeight="1">
-      <c r="P392" s="5"/>
+      <c r="Q392" s="5"/>
     </row>
     <row r="393" ht="12.75" customHeight="1">
-      <c r="P393" s="5"/>
+      <c r="Q393" s="5"/>
     </row>
     <row r="394" ht="12.75" customHeight="1">
-      <c r="P394" s="5"/>
+      <c r="Q394" s="5"/>
     </row>
     <row r="395" ht="12.75" customHeight="1">
-      <c r="P395" s="5"/>
+      <c r="Q395" s="5"/>
     </row>
     <row r="396" ht="12.75" customHeight="1">
-      <c r="P396" s="5"/>
+      <c r="Q396" s="5"/>
     </row>
     <row r="397" ht="12.75" customHeight="1">
-      <c r="P397" s="5"/>
+      <c r="Q397" s="5"/>
     </row>
     <row r="398" ht="12.75" customHeight="1">
-      <c r="P398" s="5"/>
+      <c r="Q398" s="5"/>
     </row>
     <row r="399" ht="12.75" customHeight="1">
-      <c r="P399" s="5"/>
+      <c r="Q399" s="5"/>
     </row>
     <row r="400" ht="12.75" customHeight="1">
-      <c r="P400" s="5"/>
+      <c r="Q400" s="5"/>
     </row>
     <row r="401" ht="12.75" customHeight="1">
-      <c r="P401" s="5"/>
+      <c r="Q401" s="5"/>
     </row>
     <row r="402" ht="12.75" customHeight="1">
-      <c r="P402" s="5"/>
+      <c r="Q402" s="5"/>
     </row>
     <row r="403" ht="12.75" customHeight="1">
-      <c r="P403" s="5"/>
+      <c r="Q403" s="5"/>
     </row>
     <row r="404" ht="12.75" customHeight="1">
-      <c r="P404" s="5"/>
+      <c r="Q404" s="5"/>
     </row>
     <row r="405" ht="12.75" customHeight="1">
-      <c r="P405" s="5"/>
+      <c r="Q405" s="5"/>
     </row>
     <row r="406" ht="12.75" customHeight="1">
-      <c r="P406" s="5"/>
+      <c r="Q406" s="5"/>
     </row>
     <row r="407" ht="12.75" customHeight="1">
-      <c r="P407" s="5"/>
+      <c r="Q407" s="5"/>
     </row>
     <row r="408" ht="12.75" customHeight="1">
-      <c r="P408" s="5"/>
+      <c r="Q408" s="5"/>
     </row>
     <row r="409" ht="12.75" customHeight="1">
-      <c r="P409" s="5"/>
+      <c r="Q409" s="5"/>
     </row>
     <row r="410" ht="12.75" customHeight="1">
-      <c r="P410" s="5"/>
+      <c r="Q410" s="5"/>
     </row>
     <row r="411" ht="12.75" customHeight="1">
-      <c r="P411" s="5"/>
+      <c r="Q411" s="5"/>
     </row>
     <row r="412" ht="12.75" customHeight="1">
-      <c r="P412" s="5"/>
+      <c r="Q412" s="5"/>
     </row>
     <row r="413" ht="12.75" customHeight="1">
-      <c r="P413" s="5"/>
+      <c r="Q413" s="5"/>
     </row>
     <row r="414" ht="12.75" customHeight="1">
-      <c r="P414" s="5"/>
+      <c r="Q414" s="5"/>
     </row>
     <row r="415" ht="12.75" customHeight="1">
-      <c r="P415" s="5"/>
+      <c r="Q415" s="5"/>
     </row>
     <row r="416" ht="12.75" customHeight="1">
-      <c r="P416" s="5"/>
+      <c r="Q416" s="5"/>
     </row>
     <row r="417" ht="12.75" customHeight="1">
-      <c r="P417" s="5"/>
+      <c r="Q417" s="5"/>
     </row>
     <row r="418" ht="12.75" customHeight="1">
-      <c r="P418" s="5"/>
+      <c r="Q418" s="5"/>
     </row>
     <row r="419" ht="12.75" customHeight="1">
-      <c r="P419" s="5"/>
+      <c r="Q419" s="5"/>
     </row>
     <row r="420" ht="12.75" customHeight="1">
-      <c r="P420" s="5"/>
+      <c r="Q420" s="5"/>
     </row>
     <row r="421" ht="12.75" customHeight="1">
-      <c r="P421" s="5"/>
+      <c r="Q421" s="5"/>
     </row>
     <row r="422" ht="12.75" customHeight="1">
-      <c r="P422" s="5"/>
+      <c r="Q422" s="5"/>
     </row>
     <row r="423" ht="12.75" customHeight="1">
-      <c r="P423" s="5"/>
+      <c r="Q423" s="5"/>
     </row>
     <row r="424" ht="12.75" customHeight="1">
-      <c r="P424" s="5"/>
+      <c r="Q424" s="5"/>
     </row>
     <row r="425" ht="12.75" customHeight="1">
-      <c r="P425" s="5"/>
+      <c r="Q425" s="5"/>
     </row>
     <row r="426" ht="12.75" customHeight="1">
-      <c r="P426" s="5"/>
+      <c r="Q426" s="5"/>
     </row>
     <row r="427" ht="12.75" customHeight="1">
-      <c r="P427" s="5"/>
+      <c r="Q427" s="5"/>
     </row>
     <row r="428" ht="12.75" customHeight="1">
-      <c r="P428" s="5"/>
+      <c r="Q428" s="5"/>
     </row>
     <row r="429" ht="12.75" customHeight="1">
-      <c r="P429" s="5"/>
+      <c r="Q429" s="5"/>
     </row>
     <row r="430" ht="12.75" customHeight="1">
-      <c r="P430" s="5"/>
+      <c r="Q430" s="5"/>
     </row>
     <row r="431" ht="12.75" customHeight="1">
-      <c r="P431" s="5"/>
+      <c r="Q431" s="5"/>
     </row>
     <row r="432" ht="12.75" customHeight="1">
-      <c r="P432" s="5"/>
+      <c r="Q432" s="5"/>
     </row>
     <row r="433" ht="12.75" customHeight="1">
-      <c r="P433" s="5"/>
+      <c r="Q433" s="5"/>
     </row>
     <row r="434" ht="12.75" customHeight="1">
-      <c r="P434" s="5"/>
+      <c r="Q434" s="5"/>
     </row>
     <row r="435" ht="12.75" customHeight="1">
-      <c r="P435" s="5"/>
+      <c r="Q435" s="5"/>
     </row>
     <row r="436" ht="12.75" customHeight="1">
-      <c r="P436" s="5"/>
+      <c r="Q436" s="5"/>
     </row>
     <row r="437" ht="12.75" customHeight="1">
-      <c r="P437" s="5"/>
+      <c r="Q437" s="5"/>
     </row>
     <row r="438" ht="12.75" customHeight="1">
-      <c r="P438" s="5"/>
+      <c r="Q438" s="5"/>
     </row>
     <row r="439" ht="12.75" customHeight="1">
-      <c r="P439" s="5"/>
+      <c r="Q439" s="5"/>
     </row>
     <row r="440" ht="12.75" customHeight="1">
-      <c r="P440" s="5"/>
+      <c r="Q440" s="5"/>
     </row>
     <row r="441" ht="12.75" customHeight="1">
-      <c r="P441" s="5"/>
+      <c r="Q441" s="5"/>
     </row>
     <row r="442" ht="12.75" customHeight="1">
-      <c r="P442" s="5"/>
+      <c r="Q442" s="5"/>
     </row>
     <row r="443" ht="12.75" customHeight="1">
-      <c r="P443" s="5"/>
+      <c r="Q443" s="5"/>
     </row>
     <row r="444" ht="12.75" customHeight="1">
-      <c r="P444" s="5"/>
+      <c r="Q444" s="5"/>
     </row>
     <row r="445" ht="12.75" customHeight="1">
-      <c r="P445" s="5"/>
+      <c r="Q445" s="5"/>
     </row>
     <row r="446" ht="12.75" customHeight="1">
-      <c r="P446" s="5"/>
+      <c r="Q446" s="5"/>
     </row>
     <row r="447" ht="12.75" customHeight="1">
-      <c r="P447" s="5"/>
+      <c r="Q447" s="5"/>
     </row>
     <row r="448" ht="12.75" customHeight="1">
-      <c r="P448" s="5"/>
+      <c r="Q448" s="5"/>
     </row>
     <row r="449" ht="12.75" customHeight="1">
-      <c r="P449" s="5"/>
+      <c r="Q449" s="5"/>
     </row>
     <row r="450" ht="12.75" customHeight="1">
-      <c r="P450" s="5"/>
+      <c r="Q450" s="5"/>
     </row>
     <row r="451" ht="12.75" customHeight="1">
-      <c r="P451" s="5"/>
+      <c r="Q451" s="5"/>
     </row>
     <row r="452" ht="12.75" customHeight="1">
-      <c r="P452" s="5"/>
+      <c r="Q452" s="5"/>
     </row>
     <row r="453" ht="12.75" customHeight="1">
-      <c r="P453" s="5"/>
+      <c r="Q453" s="5"/>
     </row>
     <row r="454" ht="12.75" customHeight="1">
-      <c r="P454" s="5"/>
+      <c r="Q454" s="5"/>
     </row>
     <row r="455" ht="12.75" customHeight="1">
-      <c r="P455" s="5"/>
+      <c r="Q455" s="5"/>
     </row>
     <row r="456" ht="12.75" customHeight="1">
-      <c r="P456" s="5"/>
+      <c r="Q456" s="5"/>
     </row>
     <row r="457" ht="12.75" customHeight="1">
-      <c r="P457" s="5"/>
+      <c r="Q457" s="5"/>
     </row>
     <row r="458" ht="12.75" customHeight="1">
-      <c r="P458" s="5"/>
+      <c r="Q458" s="5"/>
     </row>
     <row r="459" ht="12.75" customHeight="1">
-      <c r="P459" s="5"/>
+      <c r="Q459" s="5"/>
     </row>
     <row r="460" ht="12.75" customHeight="1">
-      <c r="P460" s="5"/>
+      <c r="Q460" s="5"/>
     </row>
     <row r="461" ht="12.75" customHeight="1">
-      <c r="P461" s="5"/>
+      <c r="Q461" s="5"/>
     </row>
     <row r="462" ht="12.75" customHeight="1">
-      <c r="P462" s="5"/>
+      <c r="Q462" s="5"/>
     </row>
     <row r="463" ht="12.75" customHeight="1">
-      <c r="P463" s="5"/>
+      <c r="Q463" s="5"/>
     </row>
     <row r="464" ht="12.75" customHeight="1">
-      <c r="P464" s="5"/>
+      <c r="Q464" s="5"/>
     </row>
     <row r="465" ht="12.75" customHeight="1">
-      <c r="P465" s="5"/>
+      <c r="Q465" s="5"/>
     </row>
     <row r="466" ht="12.75" customHeight="1">
-      <c r="P466" s="5"/>
+      <c r="Q466" s="5"/>
     </row>
     <row r="467" ht="12.75" customHeight="1">
-      <c r="P467" s="5"/>
+      <c r="Q467" s="5"/>
     </row>
     <row r="468" ht="12.75" customHeight="1">
-      <c r="P468" s="5"/>
+      <c r="Q468" s="5"/>
     </row>
     <row r="469" ht="12.75" customHeight="1">
-      <c r="P469" s="5"/>
+      <c r="Q469" s="5"/>
     </row>
     <row r="470" ht="12.75" customHeight="1">
-      <c r="P470" s="5"/>
+      <c r="Q470" s="5"/>
     </row>
     <row r="471" ht="12.75" customHeight="1">
-      <c r="P471" s="5"/>
+      <c r="Q471" s="5"/>
     </row>
     <row r="472" ht="12.75" customHeight="1">
-      <c r="P472" s="5"/>
+      <c r="Q472" s="5"/>
     </row>
     <row r="473" ht="12.75" customHeight="1">
-      <c r="P473" s="5"/>
+      <c r="Q473" s="5"/>
     </row>
     <row r="474" ht="12.75" customHeight="1">
-      <c r="P474" s="5"/>
+      <c r="Q474" s="5"/>
     </row>
     <row r="475" ht="12.75" customHeight="1">
-      <c r="P475" s="5"/>
+      <c r="Q475" s="5"/>
     </row>
     <row r="476" ht="12.75" customHeight="1">
-      <c r="P476" s="5"/>
+      <c r="Q476" s="5"/>
     </row>
     <row r="477" ht="12.75" customHeight="1">
-      <c r="P477" s="5"/>
+      <c r="Q477" s="5"/>
     </row>
     <row r="478" ht="12.75" customHeight="1">
-      <c r="P478" s="5"/>
+      <c r="Q478" s="5"/>
     </row>
     <row r="479" ht="12.75" customHeight="1">
-      <c r="P479" s="5"/>
+      <c r="Q479" s="5"/>
     </row>
     <row r="480" ht="12.75" customHeight="1">
-      <c r="P480" s="5"/>
+      <c r="Q480" s="5"/>
     </row>
     <row r="481" ht="12.75" customHeight="1">
-      <c r="P481" s="5"/>
+      <c r="Q481" s="5"/>
     </row>
     <row r="482" ht="12.75" customHeight="1">
-      <c r="P482" s="5"/>
+      <c r="Q482" s="5"/>
     </row>
     <row r="483" ht="12.75" customHeight="1">
-      <c r="P483" s="5"/>
+      <c r="Q483" s="5"/>
     </row>
     <row r="484" ht="12.75" customHeight="1">
-      <c r="P484" s="5"/>
+      <c r="Q484" s="5"/>
     </row>
     <row r="485" ht="12.75" customHeight="1">
-      <c r="P485" s="5"/>
+      <c r="Q485" s="5"/>
     </row>
     <row r="486" ht="12.75" customHeight="1">
-      <c r="P486" s="5"/>
+      <c r="Q486" s="5"/>
     </row>
     <row r="487" ht="12.75" customHeight="1">
-      <c r="P487" s="5"/>
+      <c r="Q487" s="5"/>
     </row>
     <row r="488" ht="12.75" customHeight="1">
-      <c r="P488" s="5"/>
+      <c r="Q488" s="5"/>
     </row>
     <row r="489" ht="12.75" customHeight="1">
-      <c r="P489" s="5"/>
+      <c r="Q489" s="5"/>
     </row>
     <row r="490" ht="12.75" customHeight="1">
-      <c r="P490" s="5"/>
+      <c r="Q490" s="5"/>
     </row>
     <row r="491" ht="12.75" customHeight="1">
-      <c r="P491" s="5"/>
+      <c r="Q491" s="5"/>
     </row>
     <row r="492" ht="12.75" customHeight="1">
-      <c r="P492" s="5"/>
+      <c r="Q492" s="5"/>
     </row>
     <row r="493" ht="12.75" customHeight="1">
-      <c r="P493" s="5"/>
+      <c r="Q493" s="5"/>
     </row>
     <row r="494" ht="12.75" customHeight="1">
-      <c r="P494" s="5"/>
+      <c r="Q494" s="5"/>
     </row>
     <row r="495" ht="12.75" customHeight="1">
-      <c r="P495" s="5"/>
+      <c r="Q495" s="5"/>
     </row>
     <row r="496" ht="12.75" customHeight="1">
-      <c r="P496" s="5"/>
+      <c r="Q496" s="5"/>
     </row>
     <row r="497" ht="12.75" customHeight="1">
-      <c r="P497" s="5"/>
+      <c r="Q497" s="5"/>
     </row>
     <row r="498" ht="12.75" customHeight="1">
-      <c r="P498" s="5"/>
+      <c r="Q498" s="5"/>
     </row>
     <row r="499" ht="12.75" customHeight="1">
-      <c r="P499" s="5"/>
+      <c r="Q499" s="5"/>
     </row>
     <row r="500" ht="12.75" customHeight="1">
-      <c r="P500" s="5"/>
+      <c r="Q500" s="5"/>
     </row>
     <row r="501" ht="12.75" customHeight="1">
-      <c r="P501" s="5"/>
+      <c r="Q501" s="5"/>
     </row>
     <row r="502" ht="12.75" customHeight="1">
-      <c r="P502" s="5"/>
+      <c r="Q502" s="5"/>
     </row>
     <row r="503" ht="12.75" customHeight="1">
-      <c r="P503" s="5"/>
+      <c r="Q503" s="5"/>
     </row>
     <row r="504" ht="12.75" customHeight="1">
-      <c r="P504" s="5"/>
+      <c r="Q504" s="5"/>
     </row>
     <row r="505" ht="12.75" customHeight="1">
-      <c r="P505" s="5"/>
+      <c r="Q505" s="5"/>
     </row>
     <row r="506" ht="12.75" customHeight="1">
-      <c r="P506" s="5"/>
+      <c r="Q506" s="5"/>
     </row>
     <row r="507" ht="12.75" customHeight="1">
-      <c r="P507" s="5"/>
+      <c r="Q507" s="5"/>
     </row>
     <row r="508" ht="12.75" customHeight="1">
-      <c r="P508" s="5"/>
+      <c r="Q508" s="5"/>
     </row>
     <row r="509" ht="12.75" customHeight="1">
-      <c r="P509" s="5"/>
+      <c r="Q509" s="5"/>
     </row>
     <row r="510" ht="12.75" customHeight="1">
-      <c r="P510" s="5"/>
+      <c r="Q510" s="5"/>
     </row>
     <row r="511" ht="12.75" customHeight="1">
-      <c r="P511" s="5"/>
+      <c r="Q511" s="5"/>
     </row>
     <row r="512" ht="12.75" customHeight="1">
-      <c r="P512" s="5"/>
+      <c r="Q512" s="5"/>
     </row>
     <row r="513" ht="12.75" customHeight="1">
-      <c r="P513" s="5"/>
+      <c r="Q513" s="5"/>
     </row>
     <row r="514" ht="12.75" customHeight="1">
-      <c r="P514" s="5"/>
+      <c r="Q514" s="5"/>
     </row>
     <row r="515" ht="12.75" customHeight="1">
-      <c r="P515" s="5"/>
+      <c r="Q515" s="5"/>
     </row>
     <row r="516" ht="12.75" customHeight="1">
-      <c r="P516" s="5"/>
+      <c r="Q516" s="5"/>
     </row>
     <row r="517" ht="12.75" customHeight="1">
-      <c r="P517" s="5"/>
+      <c r="Q517" s="5"/>
     </row>
     <row r="518" ht="12.75" customHeight="1">
-      <c r="P518" s="5"/>
+      <c r="Q518" s="5"/>
     </row>
     <row r="519" ht="12.75" customHeight="1">
-      <c r="P519" s="5"/>
+      <c r="Q519" s="5"/>
     </row>
     <row r="520" ht="12.75" customHeight="1">
-      <c r="P520" s="5"/>
+      <c r="Q520" s="5"/>
     </row>
     <row r="521" ht="12.75" customHeight="1">
-      <c r="P521" s="5"/>
+      <c r="Q521" s="5"/>
     </row>
     <row r="522" ht="12.75" customHeight="1">
-      <c r="P522" s="5"/>
+      <c r="Q522" s="5"/>
     </row>
     <row r="523" ht="12.75" customHeight="1">
-      <c r="P523" s="5"/>
+      <c r="Q523" s="5"/>
     </row>
     <row r="524" ht="12.75" customHeight="1">
-      <c r="P524" s="5"/>
+      <c r="Q524" s="5"/>
     </row>
     <row r="525" ht="12.75" customHeight="1">
-      <c r="P525" s="5"/>
+      <c r="Q525" s="5"/>
     </row>
     <row r="526" ht="12.75" customHeight="1">
-      <c r="P526" s="5"/>
+      <c r="Q526" s="5"/>
     </row>
     <row r="527" ht="12.75" customHeight="1">
-      <c r="P527" s="5"/>
+      <c r="Q527" s="5"/>
     </row>
     <row r="528" ht="12.75" customHeight="1">
-      <c r="P528" s="5"/>
+      <c r="Q528" s="5"/>
     </row>
     <row r="529" ht="12.75" customHeight="1">
-      <c r="P529" s="5"/>
+      <c r="Q529" s="5"/>
     </row>
     <row r="530" ht="12.75" customHeight="1">
-      <c r="P530" s="5"/>
+      <c r="Q530" s="5"/>
     </row>
     <row r="531" ht="12.75" customHeight="1">
-      <c r="P531" s="5"/>
+      <c r="Q531" s="5"/>
     </row>
     <row r="532" ht="12.75" customHeight="1">
-      <c r="P532" s="5"/>
+      <c r="Q532" s="5"/>
     </row>
     <row r="533" ht="12.75" customHeight="1">
-      <c r="P533" s="5"/>
+      <c r="Q533" s="5"/>
     </row>
     <row r="534" ht="12.75" customHeight="1">
-      <c r="P534" s="5"/>
+      <c r="Q534" s="5"/>
     </row>
     <row r="535" ht="12.75" customHeight="1">
-      <c r="P535" s="5"/>
+      <c r="Q535" s="5"/>
     </row>
     <row r="536" ht="12.75" customHeight="1">
-      <c r="P536" s="5"/>
+      <c r="Q536" s="5"/>
     </row>
     <row r="537" ht="12.75" customHeight="1">
-      <c r="P537" s="5"/>
+      <c r="Q537" s="5"/>
     </row>
     <row r="538" ht="12.75" customHeight="1">
-      <c r="P538" s="5"/>
+      <c r="Q538" s="5"/>
     </row>
     <row r="539" ht="12.75" customHeight="1">
-      <c r="P539" s="5"/>
+      <c r="Q539" s="5"/>
     </row>
     <row r="540" ht="12.75" customHeight="1">
-      <c r="P540" s="5"/>
+      <c r="Q540" s="5"/>
     </row>
     <row r="541" ht="12.75" customHeight="1">
-      <c r="P541" s="5"/>
+      <c r="Q541" s="5"/>
     </row>
     <row r="542" ht="12.75" customHeight="1">
-      <c r="P542" s="5"/>
+      <c r="Q542" s="5"/>
     </row>
     <row r="543" ht="12.75" customHeight="1">
-      <c r="P543" s="5"/>
+      <c r="Q543" s="5"/>
     </row>
     <row r="544" ht="12.75" customHeight="1">
-      <c r="P544" s="5"/>
+      <c r="Q544" s="5"/>
     </row>
     <row r="545" ht="12.75" customHeight="1">
-      <c r="P545" s="5"/>
+      <c r="Q545" s="5"/>
     </row>
     <row r="546" ht="12.75" customHeight="1">
-      <c r="P546" s="5"/>
+      <c r="Q546" s="5"/>
     </row>
     <row r="547" ht="12.75" customHeight="1">
-      <c r="P547" s="5"/>
+      <c r="Q547" s="5"/>
     </row>
     <row r="548" ht="12.75" customHeight="1">
-      <c r="P548" s="5"/>
+      <c r="Q548" s="5"/>
     </row>
     <row r="549" ht="12.75" customHeight="1">
-      <c r="P549" s="5"/>
+      <c r="Q549" s="5"/>
     </row>
     <row r="550" ht="12.75" customHeight="1">
-      <c r="P550" s="5"/>
+      <c r="Q550" s="5"/>
     </row>
     <row r="551" ht="12.75" customHeight="1">
-      <c r="P551" s="5"/>
+      <c r="Q551" s="5"/>
     </row>
     <row r="552" ht="12.75" customHeight="1">
-      <c r="P552" s="5"/>
+      <c r="Q552" s="5"/>
     </row>
     <row r="553" ht="12.75" customHeight="1">
-      <c r="P553" s="5"/>
+      <c r="Q553" s="5"/>
     </row>
     <row r="554" ht="12.75" customHeight="1">
-      <c r="P554" s="5"/>
+      <c r="Q554" s="5"/>
     </row>
     <row r="555" ht="12.75" customHeight="1">
-      <c r="P555" s="5"/>
+      <c r="Q555" s="5"/>
     </row>
     <row r="556" ht="12.75" customHeight="1">
-      <c r="P556" s="5"/>
+      <c r="Q556" s="5"/>
     </row>
     <row r="557" ht="12.75" customHeight="1">
-      <c r="P557" s="5"/>
+      <c r="Q557" s="5"/>
     </row>
     <row r="558" ht="12.75" customHeight="1">
-      <c r="P558" s="5"/>
+      <c r="Q558" s="5"/>
     </row>
     <row r="559" ht="12.75" customHeight="1">
-      <c r="P559" s="5"/>
+      <c r="Q559" s="5"/>
     </row>
     <row r="560" ht="12.75" customHeight="1">
-      <c r="P560" s="5"/>
+      <c r="Q560" s="5"/>
     </row>
     <row r="561" ht="12.75" customHeight="1">
-      <c r="P561" s="5"/>
+      <c r="Q561" s="5"/>
     </row>
     <row r="562" ht="12.75" customHeight="1">
-      <c r="P562" s="5"/>
+      <c r="Q562" s="5"/>
     </row>
     <row r="563" ht="12.75" customHeight="1">
-      <c r="P563" s="5"/>
+      <c r="Q563" s="5"/>
     </row>
     <row r="564" ht="12.75" customHeight="1">
-      <c r="P564" s="5"/>
+      <c r="Q564" s="5"/>
     </row>
     <row r="565" ht="12.75" customHeight="1">
-      <c r="P565" s="5"/>
+      <c r="Q565" s="5"/>
     </row>
     <row r="566" ht="12.75" customHeight="1">
-      <c r="P566" s="5"/>
+      <c r="Q566" s="5"/>
     </row>
     <row r="567" ht="12.75" customHeight="1">
-      <c r="P567" s="5"/>
+      <c r="Q567" s="5"/>
     </row>
     <row r="568" ht="12.75" customHeight="1">
-      <c r="P568" s="5"/>
+      <c r="Q568" s="5"/>
     </row>
     <row r="569" ht="12.75" customHeight="1">
-      <c r="P569" s="5"/>
+      <c r="Q569" s="5"/>
     </row>
     <row r="570" ht="12.75" customHeight="1">
-      <c r="P570" s="5"/>
+      <c r="Q570" s="5"/>
     </row>
     <row r="571" ht="12.75" customHeight="1">
-      <c r="P571" s="5"/>
+      <c r="Q571" s="5"/>
     </row>
     <row r="572" ht="12.75" customHeight="1">
-      <c r="P572" s="5"/>
+      <c r="Q572" s="5"/>
     </row>
     <row r="573" ht="12.75" customHeight="1">
-      <c r="P573" s="5"/>
+      <c r="Q573" s="5"/>
     </row>
     <row r="574" ht="12.75" customHeight="1">
-      <c r="P574" s="5"/>
+      <c r="Q574" s="5"/>
     </row>
     <row r="575" ht="12.75" customHeight="1">
-      <c r="P575" s="5"/>
+      <c r="Q575" s="5"/>
     </row>
     <row r="576" ht="12.75" customHeight="1">
-      <c r="P576" s="5"/>
+      <c r="Q576" s="5"/>
     </row>
     <row r="577" ht="12.75" customHeight="1">
-      <c r="P577" s="5"/>
+      <c r="Q577" s="5"/>
     </row>
     <row r="578" ht="12.75" customHeight="1">
-      <c r="P578" s="5"/>
+      <c r="Q578" s="5"/>
     </row>
     <row r="579" ht="12.75" customHeight="1">
-      <c r="P579" s="5"/>
+      <c r="Q579" s="5"/>
     </row>
     <row r="580" ht="12.75" customHeight="1">
-      <c r="P580" s="5"/>
+      <c r="Q580" s="5"/>
     </row>
     <row r="581" ht="12.75" customHeight="1">
-      <c r="P581" s="5"/>
+      <c r="Q581" s="5"/>
     </row>
     <row r="582" ht="12.75" customHeight="1">
-      <c r="P582" s="5"/>
+      <c r="Q582" s="5"/>
     </row>
     <row r="583" ht="12.75" customHeight="1">
-      <c r="P583" s="5"/>
+      <c r="Q583" s="5"/>
     </row>
     <row r="584" ht="12.75" customHeight="1">
-      <c r="P584" s="5"/>
+      <c r="Q584" s="5"/>
     </row>
     <row r="585" ht="12.75" customHeight="1">
-      <c r="P585" s="5"/>
+      <c r="Q585" s="5"/>
     </row>
     <row r="586" ht="12.75" customHeight="1">
-      <c r="P586" s="5"/>
+      <c r="Q586" s="5"/>
     </row>
     <row r="587" ht="12.75" customHeight="1">
-      <c r="P587" s="5"/>
+      <c r="Q587" s="5"/>
     </row>
     <row r="588" ht="12.75" customHeight="1">
-      <c r="P588" s="5"/>
+      <c r="Q588" s="5"/>
     </row>
     <row r="589" ht="12.75" customHeight="1">
-      <c r="P589" s="5"/>
+      <c r="Q589" s="5"/>
     </row>
     <row r="590" ht="12.75" customHeight="1">
-      <c r="P590" s="5"/>
+      <c r="Q590" s="5"/>
     </row>
     <row r="591" ht="12.75" customHeight="1">
-      <c r="P591" s="5"/>
+      <c r="Q591" s="5"/>
     </row>
     <row r="592" ht="12.75" customHeight="1">
-      <c r="P592" s="5"/>
+      <c r="Q592" s="5"/>
     </row>
     <row r="593" ht="12.75" customHeight="1">
-      <c r="P593" s="5"/>
+      <c r="Q593" s="5"/>
     </row>
     <row r="594" ht="12.75" customHeight="1">
-      <c r="P594" s="5"/>
+      <c r="Q594" s="5"/>
     </row>
     <row r="595" ht="12.75" customHeight="1">
-      <c r="P595" s="5"/>
+      <c r="Q595" s="5"/>
     </row>
     <row r="596" ht="12.75" customHeight="1">
-      <c r="P596" s="5"/>
+      <c r="Q596" s="5"/>
     </row>
     <row r="597" ht="12.75" customHeight="1">
-      <c r="P597" s="5"/>
+      <c r="Q597" s="5"/>
     </row>
     <row r="598" ht="12.75" customHeight="1">
-      <c r="P598" s="5"/>
+      <c r="Q598" s="5"/>
     </row>
     <row r="599" ht="12.75" customHeight="1">
-      <c r="P599" s="5"/>
+      <c r="Q599" s="5"/>
     </row>
     <row r="600" ht="12.75" customHeight="1">
-      <c r="P600" s="5"/>
+      <c r="Q600" s="5"/>
     </row>
     <row r="601" ht="12.75" customHeight="1">
-      <c r="P601" s="5"/>
+      <c r="Q601" s="5"/>
     </row>
     <row r="602" ht="12.75" customHeight="1">
-      <c r="P602" s="5"/>
+      <c r="Q602" s="5"/>
     </row>
     <row r="603" ht="12.75" customHeight="1">
-      <c r="P603" s="5"/>
+      <c r="Q603" s="5"/>
     </row>
     <row r="604" ht="12.75" customHeight="1">
-      <c r="P604" s="5"/>
+      <c r="Q604" s="5"/>
     </row>
     <row r="605" ht="12.75" customHeight="1">
-      <c r="P605" s="5"/>
+      <c r="Q605" s="5"/>
     </row>
     <row r="606" ht="12.75" customHeight="1">
-      <c r="P606" s="5"/>
+      <c r="Q606" s="5"/>
     </row>
     <row r="607" ht="12.75" customHeight="1">
-      <c r="P607" s="5"/>
+      <c r="Q607" s="5"/>
     </row>
     <row r="608" ht="12.75" customHeight="1">
-      <c r="P608" s="5"/>
+      <c r="Q608" s="5"/>
     </row>
     <row r="609" ht="12.75" customHeight="1">
-      <c r="P609" s="5"/>
+      <c r="Q609" s="5"/>
     </row>
     <row r="610" ht="12.75" customHeight="1">
-      <c r="P610" s="5"/>
+      <c r="Q610" s="5"/>
     </row>
     <row r="611" ht="12.75" customHeight="1">
-      <c r="P611" s="5"/>
+      <c r="Q611" s="5"/>
     </row>
     <row r="612" ht="12.75" customHeight="1">
-      <c r="P612" s="5"/>
+      <c r="Q612" s="5"/>
     </row>
     <row r="613" ht="12.75" customHeight="1">
-      <c r="P613" s="5"/>
+      <c r="Q613" s="5"/>
     </row>
     <row r="614" ht="12.75" customHeight="1">
-      <c r="P614" s="5"/>
+      <c r="Q614" s="5"/>
     </row>
     <row r="615" ht="12.75" customHeight="1">
-      <c r="P615" s="5"/>
+      <c r="Q615" s="5"/>
     </row>
     <row r="616" ht="12.75" customHeight="1">
-      <c r="P616" s="5"/>
+      <c r="Q616" s="5"/>
     </row>
     <row r="617" ht="12.75" customHeight="1">
-      <c r="P617" s="5"/>
+      <c r="Q617" s="5"/>
     </row>
     <row r="618" ht="12.75" customHeight="1">
-      <c r="P618" s="5"/>
+      <c r="Q618" s="5"/>
     </row>
     <row r="619" ht="12.75" customHeight="1">
-      <c r="P619" s="5"/>
+      <c r="Q619" s="5"/>
     </row>
     <row r="620" ht="12.75" customHeight="1">
-      <c r="P620" s="5"/>
+      <c r="Q620" s="5"/>
     </row>
     <row r="621" ht="12.75" customHeight="1">
-      <c r="P621" s="5"/>
+      <c r="Q621" s="5"/>
     </row>
     <row r="622" ht="12.75" customHeight="1">
-      <c r="P622" s="5"/>
+      <c r="Q622" s="5"/>
     </row>
     <row r="623" ht="12.75" customHeight="1">
-      <c r="P623" s="5"/>
+      <c r="Q623" s="5"/>
     </row>
     <row r="624" ht="12.75" customHeight="1">
-      <c r="P624" s="5"/>
+      <c r="Q624" s="5"/>
     </row>
     <row r="625" ht="12.75" customHeight="1">
-      <c r="P625" s="5"/>
+      <c r="Q625" s="5"/>
     </row>
     <row r="626" ht="12.75" customHeight="1">
-      <c r="P626" s="5"/>
+      <c r="Q626" s="5"/>
     </row>
     <row r="627" ht="12.75" customHeight="1">
-      <c r="P627" s="5"/>
+      <c r="Q627" s="5"/>
     </row>
     <row r="628" ht="12.75" customHeight="1">
-      <c r="P628" s="5"/>
+      <c r="Q628" s="5"/>
     </row>
     <row r="629" ht="12.75" customHeight="1">
-      <c r="P629" s="5"/>
+      <c r="Q629" s="5"/>
     </row>
     <row r="630" ht="12.75" customHeight="1">
-      <c r="P630" s="5"/>
+      <c r="Q630" s="5"/>
     </row>
     <row r="631" ht="12.75" customHeight="1">
-      <c r="P631" s="5"/>
+      <c r="Q631" s="5"/>
     </row>
     <row r="632" ht="12.75" customHeight="1">
-      <c r="P632" s="5"/>
+      <c r="Q632" s="5"/>
     </row>
     <row r="633" ht="12.75" customHeight="1">
-      <c r="P633" s="5"/>
+      <c r="Q633" s="5"/>
     </row>
     <row r="634" ht="12.75" customHeight="1">
-      <c r="P634" s="5"/>
+      <c r="Q634" s="5"/>
     </row>
     <row r="635" ht="12.75" customHeight="1">
-      <c r="P635" s="5"/>
+      <c r="Q635" s="5"/>
     </row>
     <row r="636" ht="12.75" customHeight="1">
-      <c r="P636" s="5"/>
+      <c r="Q636" s="5"/>
     </row>
     <row r="637" ht="12.75" customHeight="1">
-      <c r="P637" s="5"/>
+      <c r="Q637" s="5"/>
     </row>
     <row r="638" ht="12.75" customHeight="1">
-      <c r="P638" s="5"/>
+      <c r="Q638" s="5"/>
     </row>
     <row r="639" ht="12.75" customHeight="1">
-      <c r="P639" s="5"/>
+      <c r="Q639" s="5"/>
     </row>
     <row r="640" ht="12.75" customHeight="1">
-      <c r="P640" s="5"/>
+      <c r="Q640" s="5"/>
     </row>
     <row r="641" ht="12.75" customHeight="1">
-      <c r="P641" s="5"/>
+      <c r="Q641" s="5"/>
     </row>
     <row r="642" ht="12.75" customHeight="1">
-      <c r="P642" s="5"/>
+      <c r="Q642" s="5"/>
     </row>
     <row r="643" ht="12.75" customHeight="1">
-      <c r="P643" s="5"/>
+      <c r="Q643" s="5"/>
     </row>
     <row r="644" ht="12.75" customHeight="1">
-      <c r="P644" s="5"/>
+      <c r="Q644" s="5"/>
     </row>
     <row r="645" ht="12.75" customHeight="1">
-      <c r="P645" s="5"/>
+      <c r="Q645" s="5"/>
     </row>
     <row r="646" ht="12.75" customHeight="1">
-      <c r="P646" s="5"/>
+      <c r="Q646" s="5"/>
     </row>
     <row r="647" ht="12.75" customHeight="1">
-      <c r="P647" s="5"/>
+      <c r="Q647" s="5"/>
     </row>
     <row r="648" ht="12.75" customHeight="1">
-      <c r="P648" s="5"/>
+      <c r="Q648" s="5"/>
     </row>
     <row r="649" ht="12.75" customHeight="1">
-      <c r="P649" s="5"/>
+      <c r="Q649" s="5"/>
     </row>
     <row r="650" ht="12.75" customHeight="1">
-      <c r="P650" s="5"/>
+      <c r="Q650" s="5"/>
     </row>
     <row r="651" ht="12.75" customHeight="1">
-      <c r="P651" s="5"/>
+      <c r="Q651" s="5"/>
     </row>
     <row r="652" ht="12.75" customHeight="1">
-      <c r="P652" s="5"/>
+      <c r="Q652" s="5"/>
     </row>
     <row r="653" ht="12.75" customHeight="1">
-      <c r="P653" s="5"/>
+      <c r="Q653" s="5"/>
     </row>
     <row r="654" ht="12.75" customHeight="1">
-      <c r="P654" s="5"/>
+      <c r="Q654" s="5"/>
     </row>
     <row r="655" ht="12.75" customHeight="1">
-      <c r="P655" s="5"/>
+      <c r="Q655" s="5"/>
     </row>
     <row r="656" ht="12.75" customHeight="1">
-      <c r="P656" s="5"/>
+      <c r="Q656" s="5"/>
     </row>
     <row r="657" ht="12.75" customHeight="1">
-      <c r="P657" s="5"/>
+      <c r="Q657" s="5"/>
     </row>
     <row r="658" ht="12.75" customHeight="1">
-      <c r="P658" s="5"/>
+      <c r="Q658" s="5"/>
     </row>
     <row r="659" ht="12.75" customHeight="1">
-      <c r="P659" s="5"/>
+      <c r="Q659" s="5"/>
     </row>
     <row r="660" ht="12.75" customHeight="1">
-      <c r="P660" s="5"/>
+      <c r="Q660" s="5"/>
     </row>
     <row r="661" ht="12.75" customHeight="1">
-      <c r="P661" s="5"/>
+      <c r="Q661" s="5"/>
     </row>
     <row r="662" ht="12.75" customHeight="1">
-      <c r="P662" s="5"/>
+      <c r="Q662" s="5"/>
     </row>
     <row r="663" ht="12.75" customHeight="1">
-      <c r="P663" s="5"/>
+      <c r="Q663" s="5"/>
     </row>
     <row r="664" ht="12.75" customHeight="1">
-      <c r="P664" s="5"/>
+      <c r="Q664" s="5"/>
     </row>
     <row r="665" ht="12.75" customHeight="1">
-      <c r="P665" s="5"/>
+      <c r="Q665" s="5"/>
     </row>
     <row r="666" ht="12.75" customHeight="1">
-      <c r="P666" s="5"/>
+      <c r="Q666" s="5"/>
     </row>
     <row r="667" ht="12.75" customHeight="1">
-      <c r="P667" s="5"/>
+      <c r="Q667" s="5"/>
     </row>
     <row r="668" ht="12.75" customHeight="1">
-      <c r="P668" s="5"/>
+      <c r="Q668" s="5"/>
     </row>
     <row r="669" ht="12.75" customHeight="1">
-      <c r="P669" s="5"/>
+      <c r="Q669" s="5"/>
     </row>
     <row r="670" ht="12.75" customHeight="1">
-      <c r="P670" s="5"/>
+      <c r="Q670" s="5"/>
     </row>
     <row r="671" ht="12.75" customHeight="1">
-      <c r="P671" s="5"/>
+      <c r="Q671" s="5"/>
     </row>
     <row r="672" ht="12.75" customHeight="1">
-      <c r="P672" s="5"/>
+      <c r="Q672" s="5"/>
     </row>
     <row r="673" ht="12.75" customHeight="1">
-      <c r="P673" s="5"/>
+      <c r="Q673" s="5"/>
     </row>
     <row r="674" ht="12.75" customHeight="1">
-      <c r="P674" s="5"/>
+      <c r="Q674" s="5"/>
     </row>
     <row r="675" ht="12.75" customHeight="1">
-      <c r="P675" s="5"/>
+      <c r="Q675" s="5"/>
     </row>
     <row r="676" ht="12.75" customHeight="1">
-      <c r="P676" s="5"/>
+      <c r="Q676" s="5"/>
     </row>
     <row r="677" ht="12.75" customHeight="1">
-      <c r="P677" s="5"/>
+      <c r="Q677" s="5"/>
     </row>
     <row r="678" ht="12.75" customHeight="1">
-      <c r="P678" s="5"/>
+      <c r="Q678" s="5"/>
     </row>
     <row r="679" ht="12.75" customHeight="1">
-      <c r="P679" s="5"/>
+      <c r="Q679" s="5"/>
     </row>
     <row r="680" ht="12.75" customHeight="1">
-      <c r="P680" s="5"/>
+      <c r="Q680" s="5"/>
     </row>
     <row r="681" ht="12.75" customHeight="1">
-      <c r="P681" s="5"/>
+      <c r="Q681" s="5"/>
     </row>
     <row r="682" ht="12.75" customHeight="1">
-      <c r="P682" s="5"/>
+      <c r="Q682" s="5"/>
     </row>
     <row r="683" ht="12.75" customHeight="1">
-      <c r="P683" s="5"/>
+      <c r="Q683" s="5"/>
     </row>
     <row r="684" ht="12.75" customHeight="1">
-      <c r="P684" s="5"/>
+      <c r="Q684" s="5"/>
     </row>
     <row r="685" ht="12.75" customHeight="1">
-      <c r="P685" s="5"/>
+      <c r="Q685" s="5"/>
     </row>
     <row r="686" ht="12.75" customHeight="1">
-      <c r="P686" s="5"/>
+      <c r="Q686" s="5"/>
     </row>
     <row r="687" ht="12.75" customHeight="1">
-      <c r="P687" s="5"/>
+      <c r="Q687" s="5"/>
     </row>
     <row r="688" ht="12.75" customHeight="1">
-      <c r="P688" s="5"/>
+      <c r="Q688" s="5"/>
     </row>
     <row r="689" ht="12.75" customHeight="1">
-      <c r="P689" s="5"/>
+      <c r="Q689" s="5"/>
     </row>
     <row r="690" ht="12.75" customHeight="1">
-      <c r="P690" s="5"/>
+      <c r="Q690" s="5"/>
     </row>
     <row r="691" ht="12.75" customHeight="1">
-      <c r="P691" s="5"/>
+      <c r="Q691" s="5"/>
     </row>
     <row r="692" ht="12.75" customHeight="1">
-      <c r="P692" s="5"/>
+      <c r="Q692" s="5"/>
     </row>
     <row r="693" ht="12.75" customHeight="1">
-      <c r="P693" s="5"/>
+      <c r="Q693" s="5"/>
     </row>
     <row r="694" ht="12.75" customHeight="1">
-      <c r="P694" s="5"/>
+      <c r="Q694" s="5"/>
     </row>
     <row r="695" ht="12.75" customHeight="1">
-      <c r="P695" s="5"/>
+      <c r="Q695" s="5"/>
     </row>
     <row r="696" ht="12.75" customHeight="1">
-      <c r="P696" s="5"/>
+      <c r="Q696" s="5"/>
     </row>
     <row r="697" ht="12.75" customHeight="1">
-      <c r="P697" s="5"/>
+      <c r="Q697" s="5"/>
     </row>
     <row r="698" ht="12.75" customHeight="1">
-      <c r="P698" s="5"/>
+      <c r="Q698" s="5"/>
     </row>
     <row r="699" ht="12.75" customHeight="1">
-      <c r="P699" s="5"/>
+      <c r="Q699" s="5"/>
     </row>
     <row r="700" ht="12.75" customHeight="1">
-      <c r="P700" s="5"/>
+      <c r="Q700" s="5"/>
     </row>
     <row r="701" ht="12.75" customHeight="1">
-      <c r="P701" s="5"/>
+      <c r="Q701" s="5"/>
     </row>
     <row r="702" ht="12.75" customHeight="1">
-      <c r="P702" s="5"/>
+      <c r="Q702" s="5"/>
     </row>
     <row r="703" ht="12.75" customHeight="1">
-      <c r="P703" s="5"/>
+      <c r="Q703" s="5"/>
     </row>
     <row r="704" ht="12.75" customHeight="1">
-      <c r="P704" s="5"/>
+      <c r="Q704" s="5"/>
     </row>
     <row r="705" ht="12.75" customHeight="1">
-      <c r="P705" s="5"/>
+      <c r="Q705" s="5"/>
     </row>
     <row r="706" ht="12.75" customHeight="1">
-      <c r="P706" s="5"/>
+      <c r="Q706" s="5"/>
     </row>
     <row r="707" ht="12.75" customHeight="1">
-      <c r="P707" s="5"/>
+      <c r="Q707" s="5"/>
     </row>
     <row r="708" ht="12.75" customHeight="1">
-      <c r="P708" s="5"/>
+      <c r="Q708" s="5"/>
     </row>
     <row r="709" ht="12.75" customHeight="1">
-      <c r="P709" s="5"/>
+      <c r="Q709" s="5"/>
     </row>
     <row r="710" ht="12.75" customHeight="1">
-      <c r="P710" s="5"/>
+      <c r="Q710" s="5"/>
     </row>
     <row r="711" ht="12.75" customHeight="1">
-      <c r="P711" s="5"/>
+      <c r="Q711" s="5"/>
     </row>
     <row r="712" ht="12.75" customHeight="1">
-      <c r="P712" s="5"/>
+      <c r="Q712" s="5"/>
     </row>
     <row r="713" ht="12.75" customHeight="1">
-      <c r="P713" s="5"/>
+      <c r="Q713" s="5"/>
     </row>
     <row r="714" ht="12.75" customHeight="1">
-      <c r="P714" s="5"/>
+      <c r="Q714" s="5"/>
     </row>
     <row r="715" ht="12.75" customHeight="1">
-      <c r="P715" s="5"/>
+      <c r="Q715" s="5"/>
     </row>
     <row r="716" ht="12.75" customHeight="1">
-      <c r="P716" s="5"/>
+      <c r="Q716" s="5"/>
     </row>
     <row r="717" ht="12.75" customHeight="1">
-      <c r="P717" s="5"/>
+      <c r="Q717" s="5"/>
     </row>
     <row r="718" ht="12.75" customHeight="1">
-      <c r="P718" s="5"/>
+      <c r="Q718" s="5"/>
     </row>
     <row r="719" ht="12.75" customHeight="1">
-      <c r="P719" s="5"/>
+      <c r="Q719" s="5"/>
     </row>
     <row r="720" ht="12.75" customHeight="1">
-      <c r="P720" s="5"/>
+      <c r="Q720" s="5"/>
     </row>
     <row r="721" ht="12.75" customHeight="1">
-      <c r="P721" s="5"/>
+      <c r="Q721" s="5"/>
     </row>
     <row r="722" ht="12.75" customHeight="1">
-      <c r="P722" s="5"/>
+      <c r="Q722" s="5"/>
     </row>
     <row r="723" ht="12.75" customHeight="1">
-      <c r="P723" s="5"/>
+      <c r="Q723" s="5"/>
     </row>
     <row r="724" ht="12.75" customHeight="1">
-      <c r="P724" s="5"/>
+      <c r="Q724" s="5"/>
     </row>
     <row r="725" ht="12.75" customHeight="1">
-      <c r="P725" s="5"/>
+      <c r="Q725" s="5"/>
     </row>
     <row r="726" ht="12.75" customHeight="1">
-      <c r="P726" s="5"/>
+      <c r="Q726" s="5"/>
     </row>
     <row r="727" ht="12.75" customHeight="1">
-      <c r="P727" s="5"/>
+      <c r="Q727" s="5"/>
     </row>
     <row r="728" ht="12.75" customHeight="1">
-      <c r="P728" s="5"/>
+      <c r="Q728" s="5"/>
     </row>
     <row r="729" ht="12.75" customHeight="1">
-      <c r="P729" s="5"/>
+      <c r="Q729" s="5"/>
     </row>
     <row r="730" ht="12.75" customHeight="1">
-      <c r="P730" s="5"/>
+      <c r="Q730" s="5"/>
     </row>
     <row r="731" ht="12.75" customHeight="1">
-      <c r="P731" s="5"/>
+      <c r="Q731" s="5"/>
     </row>
     <row r="732" ht="12.75" customHeight="1">
-      <c r="P732" s="5"/>
+      <c r="Q732" s="5"/>
     </row>
     <row r="733" ht="12.75" customHeight="1">
-      <c r="P733" s="5"/>
+      <c r="Q733" s="5"/>
     </row>
     <row r="734" ht="12.75" customHeight="1">
-      <c r="P734" s="5"/>
+      <c r="Q734" s="5"/>
     </row>
     <row r="735" ht="12.75" customHeight="1">
-      <c r="P735" s="5"/>
+      <c r="Q735" s="5"/>
     </row>
     <row r="736" ht="12.75" customHeight="1">
-      <c r="P736" s="5"/>
+      <c r="Q736" s="5"/>
     </row>
     <row r="737" ht="12.75" customHeight="1">
-      <c r="P737" s="5"/>
+      <c r="Q737" s="5"/>
     </row>
     <row r="738" ht="12.75" customHeight="1">
-      <c r="P738" s="5"/>
+      <c r="Q738" s="5"/>
     </row>
     <row r="739" ht="12.75" customHeight="1">
-      <c r="P739" s="5"/>
+      <c r="Q739" s="5"/>
     </row>
     <row r="740" ht="12.75" customHeight="1">
-      <c r="P740" s="5"/>
+      <c r="Q740" s="5"/>
     </row>
     <row r="741" ht="12.75" customHeight="1">
-      <c r="P741" s="5"/>
+      <c r="Q741" s="5"/>
     </row>
     <row r="742" ht="12.75" customHeight="1">
-      <c r="P742" s="5"/>
+      <c r="Q742" s="5"/>
     </row>
     <row r="743" ht="12.75" customHeight="1">
-      <c r="P743" s="5"/>
+      <c r="Q743" s="5"/>
     </row>
     <row r="744" ht="12.75" customHeight="1">
-      <c r="P744" s="5"/>
+      <c r="Q744" s="5"/>
     </row>
     <row r="745" ht="12.75" customHeight="1">
-      <c r="P745" s="5"/>
+      <c r="Q745" s="5"/>
     </row>
     <row r="746" ht="12.75" customHeight="1">
-      <c r="P746" s="5"/>
+      <c r="Q746" s="5"/>
     </row>
     <row r="747" ht="12.75" customHeight="1">
-      <c r="P747" s="5"/>
+      <c r="Q747" s="5"/>
     </row>
     <row r="748" ht="12.75" customHeight="1">
-      <c r="P748" s="5"/>
+      <c r="Q748" s="5"/>
     </row>
     <row r="749" ht="12.75" customHeight="1">
-      <c r="P749" s="5"/>
+      <c r="Q749" s="5"/>
     </row>
     <row r="750" ht="12.75" customHeight="1">
-      <c r="P750" s="5"/>
+      <c r="Q750" s="5"/>
     </row>
     <row r="751" ht="12.75" customHeight="1">
-      <c r="P751" s="5"/>
+      <c r="Q751" s="5"/>
     </row>
     <row r="752" ht="12.75" customHeight="1">
-      <c r="P752" s="5"/>
+      <c r="Q752" s="5"/>
     </row>
     <row r="753" ht="12.75" customHeight="1">
-      <c r="P753" s="5"/>
+      <c r="Q753" s="5"/>
     </row>
     <row r="754" ht="12.75" customHeight="1">
-      <c r="P754" s="5"/>
+      <c r="Q754" s="5"/>
     </row>
     <row r="755" ht="12.75" customHeight="1">
-      <c r="P755" s="5"/>
+      <c r="Q755" s="5"/>
     </row>
     <row r="756" ht="12.75" customHeight="1">
-      <c r="P756" s="5"/>
+      <c r="Q756" s="5"/>
     </row>
     <row r="757" ht="12.75" customHeight="1">
-      <c r="P757" s="5"/>
+      <c r="Q757" s="5"/>
     </row>
     <row r="758" ht="12.75" customHeight="1">
-      <c r="P758" s="5"/>
+      <c r="Q758" s="5"/>
     </row>
     <row r="759" ht="12.75" customHeight="1">
-      <c r="P759" s="5"/>
+      <c r="Q759" s="5"/>
     </row>
     <row r="760" ht="12.75" customHeight="1">
-      <c r="P760" s="5"/>
+      <c r="Q760" s="5"/>
     </row>
     <row r="761" ht="12.75" customHeight="1">
-      <c r="P761" s="5"/>
+      <c r="Q761" s="5"/>
     </row>
     <row r="762" ht="12.75" customHeight="1">
-      <c r="P762" s="5"/>
+      <c r="Q762" s="5"/>
     </row>
     <row r="763" ht="12.75" customHeight="1">
-      <c r="P763" s="5"/>
+      <c r="Q763" s="5"/>
     </row>
     <row r="764" ht="12.75" customHeight="1">
-      <c r="P764" s="5"/>
+      <c r="Q764" s="5"/>
     </row>
     <row r="765" ht="12.75" customHeight="1">
-      <c r="P765" s="5"/>
+      <c r="Q765" s="5"/>
     </row>
     <row r="766" ht="12.75" customHeight="1">
-      <c r="P766" s="5"/>
+      <c r="Q766" s="5"/>
     </row>
     <row r="767" ht="12.75" customHeight="1">
-      <c r="P767" s="5"/>
+      <c r="Q767" s="5"/>
     </row>
     <row r="768" ht="12.75" customHeight="1">
-      <c r="P768" s="5"/>
+      <c r="Q768" s="5"/>
     </row>
     <row r="769" ht="12.75" customHeight="1">
-      <c r="P769" s="5"/>
+      <c r="Q769" s="5"/>
     </row>
     <row r="770" ht="12.75" customHeight="1">
-      <c r="P770" s="5"/>
+      <c r="Q770" s="5"/>
     </row>
     <row r="771" ht="12.75" customHeight="1">
-      <c r="P771" s="5"/>
+      <c r="Q771" s="5"/>
     </row>
     <row r="772" ht="12.75" customHeight="1">
-      <c r="P772" s="5"/>
+      <c r="Q772" s="5"/>
     </row>
     <row r="773" ht="12.75" customHeight="1">
-      <c r="P773" s="5"/>
+      <c r="Q773" s="5"/>
     </row>
     <row r="774" ht="12.75" customHeight="1">
-      <c r="P774" s="5"/>
+      <c r="Q774" s="5"/>
     </row>
     <row r="775" ht="12.75" customHeight="1">
-      <c r="P775" s="5"/>
+      <c r="Q775" s="5"/>
     </row>
     <row r="776" ht="12.75" customHeight="1">
-      <c r="P776" s="5"/>
+      <c r="Q776" s="5"/>
     </row>
     <row r="777" ht="12.75" customHeight="1">
-      <c r="P777" s="5"/>
+      <c r="Q777" s="5"/>
     </row>
     <row r="778" ht="12.75" customHeight="1">
-      <c r="P778" s="5"/>
+      <c r="Q778" s="5"/>
     </row>
     <row r="779" ht="12.75" customHeight="1">
-      <c r="P779" s="5"/>
+      <c r="Q779" s="5"/>
     </row>
     <row r="780" ht="12.75" customHeight="1">
-      <c r="P780" s="5"/>
+      <c r="Q780" s="5"/>
     </row>
     <row r="781" ht="12.75" customHeight="1">
-      <c r="P781" s="5"/>
+      <c r="Q781" s="5"/>
     </row>
     <row r="782" ht="12.75" customHeight="1">
-      <c r="P782" s="5"/>
+      <c r="Q782" s="5"/>
     </row>
     <row r="783" ht="12.75" customHeight="1">
-      <c r="P783" s="5"/>
+      <c r="Q783" s="5"/>
     </row>
     <row r="784" ht="12.75" customHeight="1">
-      <c r="P784" s="5"/>
+      <c r="Q784" s="5"/>
     </row>
     <row r="785" ht="12.75" customHeight="1">
-      <c r="P785" s="5"/>
+      <c r="Q785" s="5"/>
     </row>
     <row r="786" ht="12.75" customHeight="1">
-      <c r="P786" s="5"/>
+      <c r="Q786" s="5"/>
     </row>
     <row r="787" ht="12.75" customHeight="1">
-      <c r="P787" s="5"/>
+      <c r="Q787" s="5"/>
     </row>
     <row r="788" ht="12.75" customHeight="1">
-      <c r="P788" s="5"/>
+      <c r="Q788" s="5"/>
     </row>
     <row r="789" ht="12.75" customHeight="1">
-      <c r="P789" s="5"/>
+      <c r="Q789" s="5"/>
     </row>
     <row r="790" ht="12.75" customHeight="1">
-      <c r="P790" s="5"/>
+      <c r="Q790" s="5"/>
     </row>
     <row r="791" ht="12.75" customHeight="1">
-      <c r="P791" s="5"/>
+      <c r="Q791" s="5"/>
     </row>
     <row r="792" ht="12.75" customHeight="1">
-      <c r="P792" s="5"/>
+      <c r="Q792" s="5"/>
     </row>
     <row r="793" ht="12.75" customHeight="1">
-      <c r="P793" s="5"/>
+      <c r="Q793" s="5"/>
     </row>
     <row r="794" ht="12.75" customHeight="1">
-      <c r="P794" s="5"/>
+      <c r="Q794" s="5"/>
     </row>
     <row r="795" ht="12.75" customHeight="1">
-      <c r="P795" s="5"/>
+      <c r="Q795" s="5"/>
     </row>
     <row r="796" ht="12.75" customHeight="1">
-      <c r="P796" s="5"/>
+      <c r="Q796" s="5"/>
     </row>
     <row r="797" ht="12.75" customHeight="1">
-      <c r="P797" s="5"/>
+      <c r="Q797" s="5"/>
     </row>
     <row r="798" ht="12.75" customHeight="1">
-      <c r="P798" s="5"/>
+      <c r="Q798" s="5"/>
     </row>
     <row r="799" ht="12.75" customHeight="1">
-      <c r="P799" s="5"/>
+      <c r="Q799" s="5"/>
     </row>
     <row r="800" ht="12.75" customHeight="1">
-      <c r="P800" s="5"/>
+      <c r="Q800" s="5"/>
     </row>
     <row r="801" ht="12.75" customHeight="1">
-      <c r="P801" s="5"/>
+      <c r="Q801" s="5"/>
     </row>
     <row r="802" ht="12.75" customHeight="1">
-      <c r="P802" s="5"/>
+      <c r="Q802" s="5"/>
     </row>
     <row r="803" ht="12.75" customHeight="1">
-      <c r="P803" s="5"/>
+      <c r="Q803" s="5"/>
     </row>
     <row r="804" ht="12.75" customHeight="1">
-      <c r="P804" s="5"/>
+      <c r="Q804" s="5"/>
     </row>
     <row r="805" ht="12.75" customHeight="1">
-      <c r="P805" s="5"/>
+      <c r="Q805" s="5"/>
     </row>
     <row r="806" ht="12.75" customHeight="1">
-      <c r="P806" s="5"/>
+      <c r="Q806" s="5"/>
     </row>
     <row r="807" ht="12.75" customHeight="1">
-      <c r="P807" s="5"/>
+      <c r="Q807" s="5"/>
     </row>
     <row r="808" ht="12.75" customHeight="1">
-      <c r="P808" s="5"/>
+      <c r="Q808" s="5"/>
     </row>
     <row r="809" ht="12.75" customHeight="1">
-      <c r="P809" s="5"/>
+      <c r="Q809" s="5"/>
     </row>
     <row r="810" ht="12.75" customHeight="1">
-      <c r="P810" s="5"/>
+      <c r="Q810" s="5"/>
     </row>
     <row r="811" ht="12.75" customHeight="1">
-      <c r="P811" s="5"/>
+      <c r="Q811" s="5"/>
     </row>
     <row r="812" ht="12.75" customHeight="1">
-      <c r="P812" s="5"/>
+      <c r="Q812" s="5"/>
     </row>
     <row r="813" ht="12.75" customHeight="1">
-      <c r="P813" s="5"/>
+      <c r="Q813" s="5"/>
     </row>
     <row r="814" ht="12.75" customHeight="1">
-      <c r="P814" s="5"/>
+      <c r="Q814" s="5"/>
     </row>
     <row r="815" ht="12.75" customHeight="1">
-      <c r="P815" s="5"/>
+      <c r="Q815" s="5"/>
     </row>
     <row r="816" ht="12.75" customHeight="1">
-      <c r="P816" s="5"/>
+      <c r="Q816" s="5"/>
     </row>
     <row r="817" ht="12.75" customHeight="1">
-      <c r="P817" s="5"/>
+      <c r="Q817" s="5"/>
     </row>
     <row r="818" ht="12.75" customHeight="1">
-      <c r="P818" s="5"/>
+      <c r="Q818" s="5"/>
     </row>
     <row r="819" ht="12.75" customHeight="1">
-      <c r="P819" s="5"/>
+      <c r="Q819" s="5"/>
     </row>
     <row r="820" ht="12.75" customHeight="1">
-      <c r="P820" s="5"/>
+      <c r="Q820" s="5"/>
     </row>
     <row r="821" ht="12.75" customHeight="1">
-      <c r="P821" s="5"/>
+      <c r="Q821" s="5"/>
     </row>
     <row r="822" ht="12.75" customHeight="1">
-      <c r="P822" s="5"/>
+      <c r="Q822" s="5"/>
     </row>
     <row r="823" ht="12.75" customHeight="1">
-      <c r="P823" s="5"/>
+      <c r="Q823" s="5"/>
     </row>
     <row r="824" ht="12.75" customHeight="1">
-      <c r="P824" s="5"/>
+      <c r="Q824" s="5"/>
     </row>
     <row r="825" ht="12.75" customHeight="1">
-      <c r="P825" s="5"/>
+      <c r="Q825" s="5"/>
     </row>
     <row r="826" ht="12.75" customHeight="1">
-      <c r="P826" s="5"/>
+      <c r="Q826" s="5"/>
     </row>
     <row r="827" ht="12.75" customHeight="1">
-      <c r="P827" s="5"/>
+      <c r="Q827" s="5"/>
     </row>
     <row r="828" ht="12.75" customHeight="1">
-      <c r="P828" s="5"/>
+      <c r="Q828" s="5"/>
     </row>
     <row r="829" ht="12.75" customHeight="1">
-      <c r="P829" s="5"/>
+      <c r="Q829" s="5"/>
     </row>
     <row r="830" ht="12.75" customHeight="1">
-      <c r="P830" s="5"/>
+      <c r="Q830" s="5"/>
     </row>
     <row r="831" ht="12.75" customHeight="1">
-      <c r="P831" s="5"/>
+      <c r="Q831" s="5"/>
     </row>
     <row r="832" ht="12.75" customHeight="1">
-      <c r="P832" s="5"/>
+      <c r="Q832" s="5"/>
     </row>
     <row r="833" ht="12.75" customHeight="1">
-      <c r="P833" s="5"/>
+      <c r="Q833" s="5"/>
     </row>
     <row r="834" ht="12.75" customHeight="1">
-      <c r="P834" s="5"/>
+      <c r="Q834" s="5"/>
     </row>
     <row r="835" ht="12.75" customHeight="1">
-      <c r="P835" s="5"/>
+      <c r="Q835" s="5"/>
     </row>
     <row r="836" ht="12.75" customHeight="1">
-      <c r="P836" s="5"/>
+      <c r="Q836" s="5"/>
     </row>
     <row r="837" ht="12.75" customHeight="1">
-      <c r="P837" s="5"/>
+      <c r="Q837" s="5"/>
     </row>
     <row r="838" ht="12.75" customHeight="1">
-      <c r="P838" s="5"/>
+      <c r="Q838" s="5"/>
     </row>
     <row r="839" ht="12.75" customHeight="1">
-      <c r="P839" s="5"/>
+      <c r="Q839" s="5"/>
     </row>
     <row r="840" ht="12.75" customHeight="1">
-      <c r="P840" s="5"/>
+      <c r="Q840" s="5"/>
     </row>
     <row r="841" ht="12.75" customHeight="1">
-      <c r="P841" s="5"/>
+      <c r="Q841" s="5"/>
     </row>
     <row r="842" ht="12.75" customHeight="1">
-      <c r="P842" s="5"/>
+      <c r="Q842" s="5"/>
     </row>
     <row r="843" ht="12.75" customHeight="1">
-      <c r="P843" s="5"/>
+      <c r="Q843" s="5"/>
     </row>
     <row r="844" ht="12.75" customHeight="1">
-      <c r="P844" s="5"/>
+      <c r="Q844" s="5"/>
     </row>
     <row r="845" ht="12.75" customHeight="1">
-      <c r="P845" s="5"/>
+      <c r="Q845" s="5"/>
     </row>
     <row r="846" ht="12.75" customHeight="1">
-      <c r="P846" s="5"/>
+      <c r="Q846" s="5"/>
     </row>
     <row r="847" ht="12.75" customHeight="1">
-      <c r="P847" s="5"/>
+      <c r="Q847" s="5"/>
     </row>
     <row r="848" ht="12.75" customHeight="1">
-      <c r="P848" s="5"/>
+      <c r="Q848" s="5"/>
     </row>
     <row r="849" ht="12.75" customHeight="1">
-      <c r="P849" s="5"/>
+      <c r="Q849" s="5"/>
     </row>
     <row r="850" ht="12.75" customHeight="1">
-      <c r="P850" s="5"/>
+      <c r="Q850" s="5"/>
     </row>
     <row r="851" ht="12.75" customHeight="1">
-      <c r="P851" s="5"/>
+      <c r="Q851" s="5"/>
     </row>
     <row r="852" ht="12.75" customHeight="1">
-      <c r="P852" s="5"/>
+      <c r="Q852" s="5"/>
     </row>
     <row r="853" ht="12.75" customHeight="1">
-      <c r="P853" s="5"/>
+      <c r="Q853" s="5"/>
     </row>
     <row r="854" ht="12.75" customHeight="1">
-      <c r="P854" s="5"/>
+      <c r="Q854" s="5"/>
     </row>
     <row r="855" ht="12.75" customHeight="1">
-      <c r="P855" s="5"/>
+      <c r="Q855" s="5"/>
     </row>
     <row r="856" ht="12.75" customHeight="1">
-      <c r="P856" s="5"/>
+      <c r="Q856" s="5"/>
     </row>
     <row r="857" ht="12.75" customHeight="1">
-      <c r="P857" s="5"/>
+      <c r="Q857" s="5"/>
     </row>
     <row r="858" ht="12.75" customHeight="1">
-      <c r="P858" s="5"/>
+      <c r="Q858" s="5"/>
     </row>
     <row r="859" ht="12.75" customHeight="1">
-      <c r="P859" s="5"/>
+      <c r="Q859" s="5"/>
     </row>
     <row r="860" ht="12.75" customHeight="1">
-      <c r="P860" s="5"/>
+      <c r="Q860" s="5"/>
     </row>
     <row r="861" ht="12.75" customHeight="1">
-      <c r="P861" s="5"/>
+      <c r="Q861" s="5"/>
     </row>
     <row r="862" ht="12.75" customHeight="1">
-      <c r="P862" s="5"/>
+      <c r="Q862" s="5"/>
     </row>
     <row r="863" ht="12.75" customHeight="1">
-      <c r="P863" s="5"/>
+      <c r="Q863" s="5"/>
     </row>
     <row r="864" ht="12.75" customHeight="1">
-      <c r="P864" s="5"/>
+      <c r="Q864" s="5"/>
     </row>
     <row r="865" ht="12.75" customHeight="1">
-      <c r="P865" s="5"/>
+      <c r="Q865" s="5"/>
     </row>
     <row r="866" ht="12.75" customHeight="1">
-      <c r="P866" s="5"/>
+      <c r="Q866" s="5"/>
     </row>
     <row r="867" ht="12.75" customHeight="1">
-      <c r="P867" s="5"/>
+      <c r="Q867" s="5"/>
     </row>
     <row r="868" ht="12.75" customHeight="1">
-      <c r="P868" s="5"/>
+      <c r="Q868" s="5"/>
     </row>
     <row r="869" ht="12.75" customHeight="1">
-      <c r="P869" s="5"/>
+      <c r="Q869" s="5"/>
     </row>
     <row r="870" ht="12.75" customHeight="1">
-      <c r="P870" s="5"/>
+      <c r="Q870" s="5"/>
     </row>
     <row r="871" ht="12.75" customHeight="1">
-      <c r="P871" s="5"/>
+      <c r="Q871" s="5"/>
     </row>
     <row r="872" ht="12.75" customHeight="1">
-      <c r="P872" s="5"/>
+      <c r="Q872" s="5"/>
     </row>
     <row r="873" ht="12.75" customHeight="1">
-      <c r="P873" s="5"/>
+      <c r="Q873" s="5"/>
     </row>
     <row r="874" ht="12.75" customHeight="1">
-      <c r="P874" s="5"/>
+      <c r="Q874" s="5"/>
     </row>
     <row r="875" ht="12.75" customHeight="1">
-      <c r="P875" s="5"/>
+      <c r="Q875" s="5"/>
     </row>
     <row r="876" ht="12.75" customHeight="1">
-      <c r="P876" s="5"/>
+      <c r="Q876" s="5"/>
     </row>
     <row r="877" ht="12.75" customHeight="1">
-      <c r="P877" s="5"/>
+      <c r="Q877" s="5"/>
     </row>
     <row r="878" ht="12.75" customHeight="1">
-      <c r="P878" s="5"/>
+      <c r="Q878" s="5"/>
     </row>
     <row r="879" ht="12.75" customHeight="1">
-      <c r="P879" s="5"/>
+      <c r="Q879" s="5"/>
     </row>
     <row r="880" ht="12.75" customHeight="1">
-      <c r="P880" s="5"/>
+      <c r="Q880" s="5"/>
     </row>
     <row r="881" ht="12.75" customHeight="1">
-      <c r="P881" s="5"/>
+      <c r="Q881" s="5"/>
     </row>
     <row r="882" ht="12.75" customHeight="1">
-      <c r="P882" s="5"/>
+      <c r="Q882" s="5"/>
     </row>
     <row r="883" ht="12.75" customHeight="1">
-      <c r="P883" s="5"/>
+      <c r="Q883" s="5"/>
     </row>
     <row r="884" ht="12.75" customHeight="1">
-      <c r="P884" s="5"/>
+      <c r="Q884" s="5"/>
     </row>
     <row r="885" ht="12.75" customHeight="1">
-      <c r="P885" s="5"/>
+      <c r="Q885" s="5"/>
     </row>
     <row r="886" ht="12.75" customHeight="1">
-      <c r="P886" s="5"/>
+      <c r="Q886" s="5"/>
     </row>
     <row r="887" ht="12.75" customHeight="1">
-      <c r="P887" s="5"/>
+      <c r="Q887" s="5"/>
     </row>
     <row r="888" ht="12.75" customHeight="1">
-      <c r="P888" s="5"/>
+      <c r="Q888" s="5"/>
     </row>
     <row r="889" ht="12.75" customHeight="1">
-      <c r="P889" s="5"/>
+      <c r="Q889" s="5"/>
     </row>
     <row r="890" ht="12.75" customHeight="1">
-      <c r="P890" s="5"/>
+      <c r="Q890" s="5"/>
     </row>
     <row r="891" ht="12.75" customHeight="1">
-      <c r="P891" s="5"/>
+      <c r="Q891" s="5"/>
     </row>
     <row r="892" ht="12.75" customHeight="1">
-      <c r="P892" s="5"/>
+      <c r="Q892" s="5"/>
     </row>
     <row r="893" ht="12.75" customHeight="1">
-      <c r="P893" s="5"/>
+      <c r="Q893" s="5"/>
     </row>
     <row r="894" ht="12.75" customHeight="1">
-      <c r="P894" s="5"/>
+      <c r="Q894" s="5"/>
     </row>
     <row r="895" ht="12.75" customHeight="1">
-      <c r="P895" s="5"/>
+      <c r="Q895" s="5"/>
     </row>
     <row r="896" ht="12.75" customHeight="1">
-      <c r="P896" s="5"/>
+      <c r="Q896" s="5"/>
     </row>
     <row r="897" ht="12.75" customHeight="1">
-      <c r="P897" s="5"/>
+      <c r="Q897" s="5"/>
     </row>
     <row r="898" ht="12.75" customHeight="1">
-      <c r="P898" s="5"/>
+      <c r="Q898" s="5"/>
     </row>
     <row r="899" ht="12.75" customHeight="1">
-      <c r="P899" s="5"/>
+      <c r="Q899" s="5"/>
     </row>
     <row r="900" ht="12.75" customHeight="1">
-      <c r="P900" s="5"/>
+      <c r="Q900" s="5"/>
     </row>
     <row r="901" ht="12.75" customHeight="1">
-      <c r="P901" s="5"/>
+      <c r="Q901" s="5"/>
     </row>
     <row r="902" ht="12.75" customHeight="1">
-      <c r="P902" s="5"/>
+      <c r="Q902" s="5"/>
     </row>
     <row r="903" ht="12.75" customHeight="1">
-      <c r="P903" s="5"/>
+      <c r="Q903" s="5"/>
     </row>
     <row r="904" ht="12.75" customHeight="1">
-      <c r="P904" s="5"/>
+      <c r="Q904" s="5"/>
     </row>
     <row r="905" ht="12.75" customHeight="1">
-      <c r="P905" s="5"/>
+      <c r="Q905" s="5"/>
     </row>
     <row r="906" ht="12.75" customHeight="1">
-      <c r="P906" s="5"/>
+      <c r="Q906" s="5"/>
     </row>
     <row r="907" ht="12.75" customHeight="1">
-      <c r="P907" s="5"/>
+      <c r="Q907" s="5"/>
     </row>
     <row r="908" ht="12.75" customHeight="1">
-      <c r="P908" s="5"/>
+      <c r="Q908" s="5"/>
     </row>
     <row r="909" ht="12.75" customHeight="1">
-      <c r="P909" s="5"/>
+      <c r="Q909" s="5"/>
     </row>
     <row r="910" ht="12.75" customHeight="1">
-      <c r="P910" s="5"/>
+      <c r="Q910" s="5"/>
     </row>
     <row r="911" ht="12.75" customHeight="1">
-      <c r="P911" s="5"/>
+      <c r="Q911" s="5"/>
     </row>
     <row r="912" ht="12.75" customHeight="1">
-      <c r="P912" s="5"/>
+      <c r="Q912" s="5"/>
     </row>
     <row r="913" ht="12.75" customHeight="1">
-      <c r="P913" s="5"/>
+      <c r="Q913" s="5"/>
     </row>
     <row r="914" ht="12.75" customHeight="1">
-      <c r="P914" s="5"/>
+      <c r="Q914" s="5"/>
     </row>
     <row r="915" ht="12.75" customHeight="1">
-      <c r="P915" s="5"/>
+      <c r="Q915" s="5"/>
     </row>
     <row r="916" ht="12.75" customHeight="1">
-      <c r="P916" s="5"/>
+      <c r="Q916" s="5"/>
     </row>
     <row r="917" ht="12.75" customHeight="1">
-      <c r="P917" s="5"/>
+      <c r="Q917" s="5"/>
     </row>
     <row r="918" ht="12.75" customHeight="1">
-      <c r="P918" s="5"/>
+      <c r="Q918" s="5"/>
     </row>
     <row r="919" ht="12.75" customHeight="1">
-      <c r="P919" s="5"/>
+      <c r="Q919" s="5"/>
     </row>
     <row r="920" ht="12.75" customHeight="1">
-      <c r="P920" s="5"/>
+      <c r="Q920" s="5"/>
     </row>
     <row r="921" ht="12.75" customHeight="1">
-      <c r="P921" s="5"/>
+      <c r="Q921" s="5"/>
     </row>
     <row r="922" ht="12.75" customHeight="1">
-      <c r="P922" s="5"/>
+      <c r="Q922" s="5"/>
     </row>
     <row r="923" ht="12.75" customHeight="1">
-      <c r="P923" s="5"/>
+      <c r="Q923" s="5"/>
     </row>
     <row r="924" ht="12.75" customHeight="1">
-      <c r="P924" s="5"/>
+      <c r="Q924" s="5"/>
     </row>
     <row r="925" ht="12.75" customHeight="1">
-      <c r="P925" s="5"/>
+      <c r="Q925" s="5"/>
     </row>
     <row r="926" ht="12.75" customHeight="1">
-      <c r="P926" s="5"/>
+      <c r="Q926" s="5"/>
     </row>
     <row r="927" ht="12.75" customHeight="1">
-      <c r="P927" s="5"/>
+      <c r="Q927" s="5"/>
     </row>
     <row r="928" ht="12.75" customHeight="1">
-      <c r="P928" s="5"/>
+      <c r="Q928" s="5"/>
     </row>
     <row r="929" ht="12.75" customHeight="1">
-      <c r="P929" s="5"/>
+      <c r="Q929" s="5"/>
     </row>
     <row r="930" ht="12.75" customHeight="1">
-      <c r="P930" s="5"/>
+      <c r="Q930" s="5"/>
     </row>
     <row r="931" ht="12.75" customHeight="1">
-      <c r="P931" s="5"/>
+      <c r="Q931" s="5"/>
     </row>
     <row r="932" ht="12.75" customHeight="1">
-      <c r="P932" s="5"/>
+      <c r="Q932" s="5"/>
     </row>
     <row r="933" ht="12.75" customHeight="1">
-      <c r="P933" s="5"/>
+      <c r="Q933" s="5"/>
     </row>
     <row r="934" ht="12.75" customHeight="1">
-      <c r="P934" s="5"/>
+      <c r="Q934" s="5"/>
     </row>
     <row r="935" ht="12.75" customHeight="1">
-      <c r="P935" s="5"/>
+      <c r="Q935" s="5"/>
     </row>
     <row r="936" ht="12.75" customHeight="1">
-      <c r="P936" s="5"/>
+      <c r="Q936" s="5"/>
     </row>
     <row r="937" ht="12.75" customHeight="1">
-      <c r="P937" s="5"/>
+      <c r="Q937" s="5"/>
     </row>
     <row r="938" ht="12.75" customHeight="1">
-      <c r="P938" s="5"/>
+      <c r="Q938" s="5"/>
     </row>
     <row r="939" ht="12.75" customHeight="1">
-      <c r="P939" s="5"/>
+      <c r="Q939" s="5"/>
     </row>
     <row r="940" ht="12.75" customHeight="1">
-      <c r="P940" s="5"/>
+      <c r="Q940" s="5"/>
     </row>
     <row r="941" ht="12.75" customHeight="1">
-      <c r="P941" s="5"/>
+      <c r="Q941" s="5"/>
     </row>
     <row r="942" ht="12.75" customHeight="1">
-      <c r="P942" s="5"/>
+      <c r="Q942" s="5"/>
     </row>
     <row r="943" ht="12.75" customHeight="1">
-      <c r="P943" s="5"/>
+      <c r="Q943" s="5"/>
     </row>
     <row r="944" ht="12.75" customHeight="1">
-      <c r="P944" s="5"/>
+      <c r="Q944" s="5"/>
     </row>
     <row r="945" ht="12.75" customHeight="1">
-      <c r="P945" s="5"/>
+      <c r="Q945" s="5"/>
     </row>
     <row r="946" ht="12.75" customHeight="1">
-      <c r="P946" s="5"/>
+      <c r="Q946" s="5"/>
     </row>
     <row r="947" ht="12.75" customHeight="1">
-      <c r="P947" s="5"/>
+      <c r="Q947" s="5"/>
     </row>
     <row r="948" ht="12.75" customHeight="1">
-      <c r="P948" s="5"/>
+      <c r="Q948" s="5"/>
     </row>
     <row r="949" ht="12.75" customHeight="1">
-      <c r="P949" s="5"/>
+      <c r="Q949" s="5"/>
     </row>
     <row r="950" ht="12.75" customHeight="1">
-      <c r="P950" s="5"/>
+      <c r="Q950" s="5"/>
     </row>
     <row r="951" ht="12.75" customHeight="1">
-      <c r="P951" s="5"/>
+      <c r="Q951" s="5"/>
     </row>
     <row r="952" ht="12.75" customHeight="1">
-      <c r="P952" s="5"/>
+      <c r="Q952" s="5"/>
     </row>
     <row r="953" ht="12.75" customHeight="1">
-      <c r="P953" s="5"/>
+      <c r="Q953" s="5"/>
     </row>
     <row r="954" ht="12.75" customHeight="1">
-      <c r="P954" s="5"/>
+      <c r="Q954" s="5"/>
     </row>
     <row r="955" ht="12.75" customHeight="1">
-      <c r="P955" s="5"/>
+      <c r="Q955" s="5"/>
     </row>
     <row r="956" ht="12.75" customHeight="1">
-      <c r="P956" s="5"/>
+      <c r="Q956" s="5"/>
     </row>
     <row r="957" ht="12.75" customHeight="1">
-      <c r="P957" s="5"/>
+      <c r="Q957" s="5"/>
     </row>
     <row r="958" ht="12.75" customHeight="1">
-      <c r="P958" s="5"/>
+      <c r="Q958" s="5"/>
     </row>
     <row r="959" ht="12.75" customHeight="1">
-      <c r="P959" s="5"/>
+      <c r="Q959" s="5"/>
     </row>
     <row r="960" ht="12.75" customHeight="1">
-      <c r="P960" s="5"/>
+      <c r="Q960" s="5"/>
     </row>
     <row r="961" ht="12.75" customHeight="1">
-      <c r="P961" s="5"/>
+      <c r="Q961" s="5"/>
     </row>
     <row r="962" ht="12.75" customHeight="1">
-      <c r="P962" s="5"/>
+      <c r="Q962" s="5"/>
     </row>
     <row r="963" ht="12.75" customHeight="1">
-      <c r="P963" s="5"/>
+      <c r="Q963" s="5"/>
     </row>
     <row r="964" ht="12.75" customHeight="1">
-      <c r="P964" s="5"/>
+      <c r="Q964" s="5"/>
     </row>
     <row r="965" ht="12.75" customHeight="1">
-      <c r="P965" s="5"/>
+      <c r="Q965" s="5"/>
     </row>
     <row r="966" ht="12.75" customHeight="1">
-      <c r="P966" s="5"/>
+      <c r="Q966" s="5"/>
     </row>
     <row r="967" ht="12.75" customHeight="1">
-      <c r="P967" s="5"/>
+      <c r="Q967" s="5"/>
     </row>
     <row r="968" ht="12.75" customHeight="1">
-      <c r="P968" s="5"/>
+      <c r="Q968" s="5"/>
     </row>
     <row r="969" ht="12.75" customHeight="1">
-      <c r="P969" s="5"/>
+      <c r="Q969" s="5"/>
     </row>
     <row r="970" ht="12.75" customHeight="1">
-      <c r="P970" s="5"/>
+      <c r="Q970" s="5"/>
     </row>
     <row r="971" ht="12.75" customHeight="1">
-      <c r="P971" s="5"/>
+      <c r="Q971" s="5"/>
     </row>
     <row r="972" ht="12.75" customHeight="1">
-      <c r="P972" s="5"/>
+      <c r="Q972" s="5"/>
     </row>
     <row r="973" ht="12.75" customHeight="1">
-      <c r="P973" s="5"/>
+      <c r="Q973" s="5"/>
     </row>
     <row r="974" ht="12.75" customHeight="1">
-      <c r="P974" s="5"/>
+      <c r="Q974" s="5"/>
     </row>
     <row r="975" ht="12.75" customHeight="1">
-      <c r="P975" s="5"/>
+      <c r="Q975" s="5"/>
     </row>
     <row r="976" ht="12.75" customHeight="1">
-      <c r="P976" s="5"/>
+      <c r="Q976" s="5"/>
     </row>
     <row r="977" ht="12.75" customHeight="1">
-      <c r="P977" s="5"/>
+      <c r="Q977" s="5"/>
     </row>
     <row r="978" ht="12.75" customHeight="1">
-      <c r="P978" s="5"/>
+      <c r="Q978" s="5"/>
     </row>
     <row r="979" ht="12.75" customHeight="1">
-      <c r="P979" s="5"/>
+      <c r="Q979" s="5"/>
     </row>
     <row r="980" ht="12.75" customHeight="1">
-      <c r="P980" s="5"/>
+      <c r="Q980" s="5"/>
     </row>
     <row r="981" ht="12.75" customHeight="1">
-      <c r="P981" s="5"/>
+      <c r="Q981" s="5"/>
     </row>
     <row r="982" ht="12.75" customHeight="1">
-      <c r="P982" s="5"/>
+      <c r="Q982" s="5"/>
     </row>
     <row r="983" ht="12.75" customHeight="1">
-      <c r="P983" s="5"/>
+      <c r="Q983" s="5"/>
     </row>
     <row r="984" ht="12.75" customHeight="1">
-      <c r="P984" s="5"/>
+      <c r="Q984" s="5"/>
     </row>
     <row r="985" ht="12.75" customHeight="1">
-      <c r="P985" s="5"/>
+      <c r="Q985" s="5"/>
     </row>
     <row r="986" ht="12.75" customHeight="1">
-      <c r="P986" s="5"/>
+      <c r="Q986" s="5"/>
     </row>
     <row r="987" ht="12.75" customHeight="1">
-      <c r="P987" s="5"/>
+      <c r="Q987" s="5"/>
     </row>
     <row r="988" ht="12.75" customHeight="1">
-      <c r="P988" s="5"/>
+      <c r="Q988" s="5"/>
     </row>
     <row r="989" ht="12.75" customHeight="1">
-      <c r="P989" s="5"/>
+      <c r="Q989" s="5"/>
     </row>
     <row r="990" ht="12.75" customHeight="1">
-      <c r="P990" s="5"/>
+      <c r="Q990" s="5"/>
     </row>
     <row r="991" ht="12.75" customHeight="1">
-      <c r="P991" s="5"/>
+      <c r="Q991" s="5"/>
     </row>
     <row r="992" ht="12.75" customHeight="1">
-      <c r="P992" s="5"/>
+      <c r="Q992" s="5"/>
     </row>
     <row r="993" ht="12.75" customHeight="1">
-      <c r="P993" s="5"/>
+      <c r="Q993" s="5"/>
     </row>
     <row r="994" ht="12.75" customHeight="1">
-      <c r="P994" s="5"/>
+      <c r="Q994" s="5"/>
     </row>
     <row r="995" ht="12.75" customHeight="1">
-      <c r="P995" s="5"/>
+      <c r="Q995" s="5"/>
     </row>
     <row r="996" ht="12.75" customHeight="1">
-      <c r="P996" s="5"/>
+      <c r="Q996" s="5"/>
     </row>
     <row r="997" ht="12.75" customHeight="1">
-      <c r="P997" s="5"/>
+      <c r="Q997" s="5"/>
     </row>
     <row r="998" ht="12.75" customHeight="1">
-      <c r="P998" s="5"/>
+      <c r="Q998" s="5"/>
     </row>
     <row r="999" ht="12.75" customHeight="1">
-      <c r="P999" s="5"/>
+      <c r="Q999" s="5"/>
     </row>
     <row r="1000" ht="12.75" customHeight="1">
-      <c r="P1000" s="5"/>
+      <c r="Q1000" s="5"/>
     </row>
   </sheetData>
   <printOptions/>
